--- a/src/out/好书共享.xlsx
+++ b/src/out/好书共享.xlsx
@@ -129,24 +129,24 @@
     <t>内蒙古-卢宇(1145522803)</t>
   </si>
   <si>
+    <t>2083686645(2083686645)</t>
+  </si>
+  <si>
     <t>广西  宁(1951618519)</t>
   </si>
   <si>
-    <t>2083686645(2083686645)</t>
-  </si>
-  <si>
     <t>系统消息(10000)</t>
   </si>
   <si>
     <t>山东菏泽~暖暖(2447846558)</t>
   </si>
   <si>
+    <t>四川whisky(1520102978)</t>
+  </si>
+  <si>
     <t>山东~暖暖(2447846558)</t>
   </si>
   <si>
-    <t>四川whisky(1520102978)</t>
-  </si>
-  <si>
     <t>山东菏泽~Forget°淡忘(2447846558)</t>
   </si>
   <si>
@@ -156,12 +156,12 @@
     <t>875483801(875483801)</t>
   </si>
   <si>
+    <t>🎶 ～听雨轩  ．(1808623748)</t>
+  </si>
+  <si>
     <t>740478155(740478155)</t>
   </si>
   <si>
-    <t>🎶 ～听雨轩  ．(1808623748)</t>
-  </si>
-  <si>
     <t>河南 文明(740478155)</t>
   </si>
   <si>
@@ -171,297 +171,297 @@
     <t>371558097(371558097)</t>
   </si>
   <si>
+    <t>西安+无念(2063380644)</t>
+  </si>
+  <si>
+    <t>(2083686645)</t>
+  </si>
+  <si>
     <t>(1951618519)</t>
   </si>
   <si>
-    <t>(2083686645)</t>
-  </si>
-  <si>
-    <t>西安+无念(2063380644)</t>
-  </si>
-  <si>
     <t>毛衣和衬衫(1511868393)</t>
   </si>
   <si>
     <t>(1427270056)</t>
   </si>
   <si>
+    <t>1018611007(1018611007)</t>
+  </si>
+  <si>
+    <t>武汉--煮的(1063168952)</t>
+  </si>
+  <si>
+    <t>云南     Angle   微笑(497232985)</t>
+  </si>
+  <si>
+    <t>武汉的同学(1850923342)</t>
+  </si>
+  <si>
     <t>武汉_彭美辰(791865372)</t>
   </si>
   <si>
-    <t>武汉的同学(1850923342)</t>
-  </si>
-  <si>
-    <t>武汉--煮的(1063168952)</t>
-  </si>
-  <si>
-    <t>1018611007(1018611007)</t>
-  </si>
-  <si>
-    <t>云南     Angle   微笑(497232985)</t>
-  </si>
-  <si>
     <t>曼曼(596765682)</t>
   </si>
   <si>
     <t>武汉～孤独是我(690511572)</t>
   </si>
   <si>
+    <t>2814869857(2814869857)</t>
+  </si>
+  <si>
     <t>财政～1601吴一波(690511572)</t>
   </si>
   <si>
-    <t>2814869857(2814869857)</t>
-  </si>
-  <si>
     <t>湖北 望山(1124847169)</t>
   </si>
   <si>
+    <t>(2447846558)</t>
+  </si>
+  <si>
+    <t>乾 ﹠魂·不吝(2510377152)</t>
+  </si>
+  <si>
+    <t>湖北—根叔(993448170)</t>
+  </si>
+  <si>
+    <t>云南   谭巧(635250290)</t>
+  </si>
+  <si>
     <t>昭通-马威心理分析(1812549176)</t>
   </si>
   <si>
-    <t>云南   谭巧(635250290)</t>
-  </si>
-  <si>
-    <t>(2447846558)</t>
+    <t>1850923342(1850923342)</t>
   </si>
   <si>
     <t>1427270056(1427270056)</t>
   </si>
   <si>
-    <t>湖北—根叔(993448170)</t>
-  </si>
-  <si>
-    <t>1850923342(1850923342)</t>
-  </si>
-  <si>
     <t>493650969(493650969)</t>
   </si>
   <si>
-    <t>乾 ﹠魂·不吝(2510377152)</t>
+    <t>云南       小飞(1491240639)</t>
+  </si>
+  <si>
+    <t>1951618519(1951618519)</t>
+  </si>
+  <si>
+    <t>(2503036233)</t>
   </si>
   <si>
     <t>地球上     瑟瑟&lt;gggggggggggggggg_9@163.com&gt;</t>
   </si>
   <si>
-    <t>1951618519(1951618519)</t>
-  </si>
-  <si>
-    <t>云南       小飞(1491240639)</t>
-  </si>
-  <si>
-    <t>(2503036233)</t>
+    <t>云南  风散か枫留(2503036233)</t>
+  </si>
+  <si>
+    <t>小天(3485476971)</t>
+  </si>
+  <si>
+    <t>微微一笑(2971344137)</t>
+  </si>
+  <si>
+    <t>(2475038603)</t>
+  </si>
+  <si>
+    <t>武汉  晨(1773663797)</t>
+  </si>
+  <si>
+    <t>云南 迷失(1715210485)</t>
   </si>
   <si>
     <t>甘肃  仓鼠(329834712)</t>
   </si>
   <si>
+    <t>微微一笑(3530718317)</t>
+  </si>
+  <si>
+    <t>993448170(993448170)</t>
+  </si>
+  <si>
+    <t>1440449040(1440449040)</t>
+  </si>
+  <si>
     <t>武汉一静穆时光(99327213)</t>
   </si>
   <si>
-    <t>武汉  晨(1773663797)</t>
-  </si>
-  <si>
-    <t>云南  风散か枫留(2503036233)</t>
-  </si>
-  <si>
-    <t>小天(3485476971)</t>
-  </si>
-  <si>
-    <t>1440449040(1440449040)</t>
-  </si>
-  <si>
     <t>武汉 古月照今尘(2510377152)</t>
   </si>
   <si>
-    <t>微微一笑(3530718317)</t>
-  </si>
-  <si>
-    <t>云南 迷失(1715210485)</t>
-  </si>
-  <si>
-    <t>993448170(993448170)</t>
-  </si>
-  <si>
-    <t>(2475038603)</t>
-  </si>
-  <si>
-    <t>微微一笑(2971344137)</t>
+    <t>1752451505(1752451505)</t>
   </si>
   <si>
     <t>641031655(641031655)</t>
   </si>
   <si>
+    <t>1850455645(1850455645)</t>
+  </si>
+  <si>
+    <t>(1850923342)</t>
+  </si>
+  <si>
+    <t>(957946932)</t>
+  </si>
+  <si>
+    <t>(429371379)</t>
+  </si>
+  <si>
+    <t>陕西 逗逗(2315085164)</t>
+  </si>
+  <si>
+    <t>广东 聆心(918188673)</t>
+  </si>
+  <si>
+    <t>武汉……小执着丶(1091220471)</t>
+  </si>
+  <si>
+    <t>云南。。罗忆安(1419200562)</t>
+  </si>
+  <si>
+    <t>云南   小胡(1765769897)</t>
+  </si>
+  <si>
+    <t>秋心(594622816)</t>
+  </si>
+  <si>
+    <t>2209053097(2209053097)</t>
+  </si>
+  <si>
+    <t>(1124847169)</t>
+  </si>
+  <si>
+    <t>湖北 小欣(547894438)</t>
+  </si>
+  <si>
     <t>武汉～秋心(594622816)</t>
   </si>
   <si>
-    <t>2209053097(2209053097)</t>
-  </si>
-  <si>
-    <t>云南   小胡(1765769897)</t>
-  </si>
-  <si>
-    <t>秋心(594622816)</t>
-  </si>
-  <si>
-    <t>(429371379)</t>
-  </si>
-  <si>
-    <t>陕西 逗逗(2315085164)</t>
-  </si>
-  <si>
-    <t>1850455645(1850455645)</t>
-  </si>
-  <si>
-    <t>1752451505(1752451505)</t>
-  </si>
-  <si>
-    <t>湖北 小欣(547894438)</t>
-  </si>
-  <si>
-    <t>武汉……小执着丶(1091220471)</t>
-  </si>
-  <si>
-    <t>广东 聆心(918188673)</t>
-  </si>
-  <si>
-    <t>(1850923342)</t>
-  </si>
-  <si>
-    <t>(957946932)</t>
-  </si>
-  <si>
-    <t>云南。。罗忆安(1419200562)</t>
-  </si>
-  <si>
-    <t>(1124847169)</t>
+    <t>童年(3530718317)</t>
+  </si>
+  <si>
+    <t>香水百合(507510662)</t>
+  </si>
+  <si>
+    <t>梧桐萋萋(2673236047)</t>
+  </si>
+  <si>
+    <t>祥云~(522209913)</t>
   </si>
   <si>
     <t>1625260485(1625260485)</t>
   </si>
   <si>
+    <t>武汉～祺祺(957862124)</t>
+  </si>
+  <si>
+    <t>湖北⭐少年(3530718317)</t>
+  </si>
+  <si>
+    <t>广西，杨艺萍(2210725638)</t>
+  </si>
+  <si>
+    <t>光头强(3454585763)</t>
+  </si>
+  <si>
+    <t>(875483801)</t>
+  </si>
+  <si>
+    <t>(1018611007)</t>
+  </si>
+  <si>
+    <t>黄家湖 阚兰(2471374146)</t>
+  </si>
+  <si>
+    <t>(975640704)</t>
+  </si>
+  <si>
+    <t>(493650969)</t>
+  </si>
+  <si>
+    <t>2447846558(2447846558)</t>
+  </si>
+  <si>
+    <t>四川  梧桐(2673236047)</t>
+  </si>
+  <si>
+    <t>不是弱智(413385329)</t>
+  </si>
+  <si>
+    <t>起个什么名字呢(1394581957)</t>
+  </si>
+  <si>
+    <t>597728956(597728956)</t>
+  </si>
+  <si>
+    <t>忽然之间(635250290)</t>
+  </si>
+  <si>
+    <t>(1773663797)</t>
+  </si>
+  <si>
+    <t>329834712(329834712)</t>
+  </si>
+  <si>
     <t>云南。。。(2563421535)</t>
   </si>
   <si>
-    <t>(1773663797)</t>
+    <t>(956181916)</t>
+  </si>
+  <si>
+    <t>(714083433)</t>
+  </si>
+  <si>
+    <t>(2327689971)</t>
+  </si>
+  <si>
+    <t>谁与流年共初识(1148381487)</t>
+  </si>
+  <si>
+    <t>请叫我小夫子(425779927)</t>
+  </si>
+  <si>
+    <t>leaf(2562604241)</t>
+  </si>
+  <si>
+    <t>武汉 陈浩(892213251)</t>
+  </si>
+  <si>
+    <t>2662195723(2662195723)</t>
+  </si>
+  <si>
+    <t>(784380833)</t>
+  </si>
+  <si>
+    <t>湖北 雪莲(1356942030)</t>
+  </si>
+  <si>
+    <t>(740478155)</t>
+  </si>
+  <si>
+    <t>2503036233(2503036233)</t>
+  </si>
+  <si>
+    <t>武汉~太阳花(234120868)</t>
+  </si>
+  <si>
+    <t>云南  威宝(1812549176)</t>
+  </si>
+  <si>
+    <t>"专业&amp;卖萌20年」(572603673)</t>
+  </si>
+  <si>
+    <t>1148381487(1148381487)</t>
+  </si>
+  <si>
+    <t>(425779927)</t>
   </si>
   <si>
     <t>🍁轻描&amp;淡写🍁(2499254683)</t>
   </si>
   <si>
-    <t>(2327689971)</t>
-  </si>
-  <si>
-    <t>(956181916)</t>
-  </si>
-  <si>
-    <t>忽然之间(635250290)</t>
-  </si>
-  <si>
-    <t>"专业&amp;卖萌20年」(572603673)</t>
-  </si>
-  <si>
-    <t>黄家湖 阚兰(2471374146)</t>
-  </si>
-  <si>
-    <t>(784380833)</t>
-  </si>
-  <si>
-    <t>329834712(329834712)</t>
-  </si>
-  <si>
-    <t>祥云~(522209913)</t>
-  </si>
-  <si>
-    <t>(714083433)</t>
-  </si>
-  <si>
-    <t>武汉~太阳花(234120868)</t>
-  </si>
-  <si>
-    <t>2503036233(2503036233)</t>
-  </si>
-  <si>
-    <t>2662195723(2662195723)</t>
-  </si>
-  <si>
-    <t>武汉～祺祺(957862124)</t>
-  </si>
-  <si>
-    <t>光头强(3454585763)</t>
-  </si>
-  <si>
-    <t>湖北⭐少年(3530718317)</t>
-  </si>
-  <si>
-    <t>leaf(2562604241)</t>
-  </si>
-  <si>
-    <t>(1018611007)</t>
-  </si>
-  <si>
-    <t>武汉 陈浩(892213251)</t>
-  </si>
-  <si>
-    <t>谁与流年共初识(1148381487)</t>
-  </si>
-  <si>
-    <t>请叫我小夫子(425779927)</t>
-  </si>
-  <si>
-    <t>(493650969)</t>
-  </si>
-  <si>
-    <t>云南  威宝(1812549176)</t>
-  </si>
-  <si>
-    <t>香水百合(507510662)</t>
-  </si>
-  <si>
-    <t>梧桐萋萋(2673236047)</t>
-  </si>
-  <si>
-    <t>起个什么名字呢(1394581957)</t>
-  </si>
-  <si>
-    <t>(425779927)</t>
-  </si>
-  <si>
-    <t>湖北 雪莲(1356942030)</t>
-  </si>
-  <si>
     <t>湖北，S(1872736162)</t>
   </si>
   <si>
-    <t>四川  梧桐(2673236047)</t>
-  </si>
-  <si>
-    <t>(975640704)</t>
-  </si>
-  <si>
-    <t>童年(3530718317)</t>
-  </si>
-  <si>
-    <t>(740478155)</t>
-  </si>
-  <si>
-    <t>1148381487(1148381487)</t>
-  </si>
-  <si>
-    <t>597728956(597728956)</t>
-  </si>
-  <si>
-    <t>2447846558(2447846558)</t>
-  </si>
-  <si>
-    <t>不是弱智(413385329)</t>
-  </si>
-  <si>
-    <t>广西，杨艺萍(2210725638)</t>
-  </si>
-  <si>
-    <t>(875483801)</t>
-  </si>
-  <si>
     <t>词汇</t>
   </si>
   <si>
@@ -519,40 +519,43 @@
     <t>菲律宾</t>
   </si>
   <si>
+    <t>南海</t>
+  </si>
+  <si>
     <t>福建</t>
   </si>
   <si>
-    <t>南海</t>
+    <t>东西</t>
   </si>
   <si>
     <t>奥巴马</t>
   </si>
   <si>
-    <t>东西</t>
-  </si>
-  <si>
     <t>马来西亚</t>
   </si>
   <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
     <t>广西</t>
   </si>
   <si>
     <t>印尼</t>
   </si>
   <si>
-    <t>海洋</t>
-  </si>
-  <si>
-    <t>印度</t>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>英国</t>
   </si>
   <si>
     <t>河南</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>亚洲</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>山西</t>
@@ -561,1669 +564,1666 @@
     <t>巴西</t>
   </si>
   <si>
-    <t>台湾地区</t>
-  </si>
-  <si>
     <t>湖南</t>
   </si>
   <si>
     <t>上市</t>
   </si>
   <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
     <t>辽宁</t>
   </si>
   <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>浙江</t>
-  </si>
-  <si>
-    <t>河北</t>
+    <t>台北</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>普京</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>杭州</t>
   </si>
   <si>
     <t>台独</t>
   </si>
   <si>
-    <t>外国</t>
+    <t>美丽</t>
+  </si>
+  <si>
+    <t>古城</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>丽江</t>
   </si>
   <si>
     <t>德国</t>
   </si>
   <si>
-    <t>内蒙古</t>
-  </si>
-  <si>
-    <t>古城</t>
-  </si>
-  <si>
-    <t>丽江</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>美丽</t>
-  </si>
-  <si>
-    <t>普京</t>
-  </si>
-  <si>
-    <t>深度</t>
-  </si>
-  <si>
-    <t>台北</t>
-  </si>
-  <si>
-    <t>欧洲</t>
+    <t>黄河</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>美</t>
+  </si>
+  <si>
+    <t>东京</t>
+  </si>
+  <si>
+    <t>重庆</t>
   </si>
   <si>
     <t>南京</t>
   </si>
   <si>
-    <t>美</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
     <t>澳大利亚</t>
   </si>
   <si>
-    <t>黄河</t>
-  </si>
-  <si>
-    <t>江西</t>
-  </si>
-  <si>
-    <t>东京</t>
-  </si>
-  <si>
     <t>深圳</t>
   </si>
   <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>华</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>回国</t>
+  </si>
+  <si>
     <t>南</t>
   </si>
   <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
     <t>北京市</t>
   </si>
   <si>
-    <t>回国</t>
-  </si>
-  <si>
-    <t>重庆市</t>
+    <t>巴萨</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>菏泽</t>
+  </si>
+  <si>
+    <t>钓鱼岛</t>
+  </si>
+  <si>
+    <t>越南</t>
   </si>
   <si>
     <t>以色列</t>
   </si>
   <si>
-    <t>江苏</t>
-  </si>
-  <si>
-    <t>菏泽</t>
-  </si>
-  <si>
-    <t>陕西</t>
-  </si>
-  <si>
-    <t>新疆</t>
-  </si>
-  <si>
-    <t>华</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>钓鱼岛</t>
-  </si>
-  <si>
-    <t>巴萨</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
     <t>天津</t>
   </si>
   <si>
-    <t>宁夏</t>
+    <t>洪荒</t>
+  </si>
+  <si>
+    <t>中美</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t>德</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>祁连山</t>
+  </si>
+  <si>
+    <t>海南</t>
   </si>
   <si>
     <t>香港特区</t>
   </si>
   <si>
+    <t>大关</t>
+  </si>
+  <si>
+    <t>长江</t>
+  </si>
+  <si>
+    <t>曼联</t>
+  </si>
+  <si>
     <t>南极</t>
   </si>
   <si>
+    <t>南昌</t>
+  </si>
+  <si>
     <t>泰国</t>
   </si>
   <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>祁连山</t>
-  </si>
-  <si>
-    <t>广东省</t>
+    <t>湖南省</t>
   </si>
   <si>
     <t>郑州</t>
   </si>
   <si>
-    <t>长江</t>
-  </si>
-  <si>
-    <t>海南</t>
-  </si>
-  <si>
-    <t>大关</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t>中美</t>
-  </si>
-  <si>
-    <t>洪荒</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>曼联</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>湖南省</t>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>祥云</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>星州</t>
+  </si>
+  <si>
+    <t>河口</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>远海</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>大桥</t>
+  </si>
+  <si>
+    <t>旧金山</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>东海</t>
+  </si>
+  <si>
+    <t>韩美</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>两国</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>苏宁</t>
+  </si>
+  <si>
+    <t>加盟</t>
+  </si>
+  <si>
+    <t>南沙</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>加拿大</t>
   </si>
   <si>
     <t>青岛</t>
   </si>
   <si>
-    <t>韩美</t>
-  </si>
-  <si>
-    <t>远海</t>
-  </si>
-  <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>河口</t>
-  </si>
-  <si>
-    <t>台</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>东海</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>祥云</t>
-  </si>
-  <si>
-    <t>安徽</t>
-  </si>
-  <si>
-    <t>苏宁</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>两国</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>东</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>加盟</t>
-  </si>
-  <si>
-    <t>旧金山</t>
-  </si>
-  <si>
-    <t>京东</t>
-  </si>
-  <si>
-    <t>甘肃</t>
-  </si>
-  <si>
-    <t>星州</t>
-  </si>
-  <si>
     <t>西班牙</t>
   </si>
   <si>
-    <t>南沙</t>
-  </si>
-  <si>
     <t>芝加哥</t>
   </si>
   <si>
-    <t>大桥</t>
+    <t>关联</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>黑市</t>
+  </si>
+  <si>
+    <t>福利</t>
+  </si>
+  <si>
+    <t>长城</t>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>深海</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>朝鲜半岛</t>
+  </si>
+  <si>
+    <t>江夏</t>
+  </si>
+  <si>
+    <t>里斯本</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>周边地区</t>
+  </si>
+  <si>
+    <t>青春</t>
+  </si>
+  <si>
+    <t>英国伦敦</t>
   </si>
   <si>
     <t>尼加拉瓜</t>
   </si>
   <si>
+    <t>龙岩市</t>
+  </si>
+  <si>
+    <t>迪拜</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>石家庄市</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>韩流</t>
+  </si>
+  <si>
+    <t>札幌</t>
+  </si>
+  <si>
+    <t>欧</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>俄</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>侯国</t>
+  </si>
+  <si>
+    <t>阜宁</t>
+  </si>
+  <si>
+    <t>深渊</t>
+  </si>
+  <si>
+    <t>上岗</t>
+  </si>
+  <si>
+    <t>上台</t>
+  </si>
+  <si>
+    <t>福岛</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>城镇</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>梅州</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
+    <t>三峡</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>大国</t>
+  </si>
+  <si>
+    <t>蒙古国</t>
+  </si>
+  <si>
+    <t>阿联酋</t>
+  </si>
+  <si>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>新鲜</t>
+  </si>
+  <si>
+    <t>西北</t>
+  </si>
+  <si>
+    <t>青瓦台</t>
+  </si>
+  <si>
+    <t>滁</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>依法治国</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>海沟</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>保家卫国</t>
+  </si>
+  <si>
+    <t>天宫</t>
+  </si>
+  <si>
+    <t>美韩</t>
+  </si>
+  <si>
+    <t>克什米尔地区</t>
+  </si>
+  <si>
+    <t>北美</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>京</t>
+  </si>
+  <si>
+    <t>伊斯兰</t>
+  </si>
+  <si>
+    <t>银联</t>
+  </si>
+  <si>
+    <t>三中</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>缅方</t>
+  </si>
+  <si>
+    <t>三湖</t>
+  </si>
+  <si>
     <t>中欧</t>
   </si>
   <si>
-    <t>阜宁</t>
-  </si>
-  <si>
-    <t>福利</t>
-  </si>
-  <si>
-    <t>苏格兰</t>
-  </si>
-  <si>
-    <t>城镇</t>
-  </si>
-  <si>
-    <t>昆明</t>
-  </si>
-  <si>
-    <t>韩流</t>
-  </si>
-  <si>
-    <t>西北</t>
-  </si>
-  <si>
-    <t>太阳</t>
-  </si>
-  <si>
-    <t>京</t>
-  </si>
-  <si>
-    <t>三中</t>
-  </si>
-  <si>
-    <t>深渊</t>
-  </si>
-  <si>
-    <t>梅州</t>
-  </si>
-  <si>
-    <t>关联</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>朝鲜半岛</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>福岛</t>
-  </si>
-  <si>
-    <t>海沟</t>
-  </si>
-  <si>
-    <t>龙岩市</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>依法治国</t>
-  </si>
-  <si>
-    <t>札幌</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>保家卫国</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>天宫</t>
-  </si>
-  <si>
-    <t>美韩</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>缅方</t>
-  </si>
-  <si>
-    <t>深海</t>
-  </si>
-  <si>
-    <t>上台</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>黑市</t>
-  </si>
-  <si>
-    <t>银联</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>欧</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>克什米尔地区</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>滁</t>
-  </si>
-  <si>
-    <t>石家庄市</t>
-  </si>
-  <si>
-    <t>俄</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>伊斯兰</t>
-  </si>
-  <si>
-    <t>迪拜</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>青瓦台</t>
-  </si>
-  <si>
-    <t>周边地区</t>
-  </si>
-  <si>
-    <t>三峡</t>
-  </si>
-  <si>
-    <t>长城</t>
-  </si>
-  <si>
-    <t>青春</t>
-  </si>
-  <si>
-    <t>中华民国</t>
-  </si>
-  <si>
-    <t>三湖</t>
-  </si>
-  <si>
-    <t>上岗</t>
-  </si>
-  <si>
-    <t>中山</t>
-  </si>
-  <si>
-    <t>英国伦敦</t>
-  </si>
-  <si>
-    <t>北美</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>朝</t>
-  </si>
-  <si>
-    <t>侯国</t>
-  </si>
-  <si>
-    <t>大国</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>江夏</t>
-  </si>
-  <si>
-    <t>新鲜</t>
-  </si>
-  <si>
-    <t>里斯本</t>
-  </si>
-  <si>
-    <t>东亚</t>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>花钱买</t>
+  </si>
+  <si>
+    <t>澳</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>上港</t>
+  </si>
+  <si>
+    <t>白俄</t>
+  </si>
+  <si>
+    <t>沧桑</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>休斯敦</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>绵阳</t>
+  </si>
+  <si>
+    <t>福</t>
+  </si>
+  <si>
+    <t>大连市</t>
+  </si>
+  <si>
+    <t>泸水</t>
+  </si>
+  <si>
+    <t>海港</t>
+  </si>
+  <si>
+    <t>深港</t>
+  </si>
+  <si>
+    <t>闽江</t>
+  </si>
+  <si>
+    <t>南湖</t>
+  </si>
+  <si>
+    <t>朝阳区</t>
+  </si>
+  <si>
+    <t>蜀中</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>许昌市</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>南太平洋</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>辉南县</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>中亚地区</t>
+  </si>
+  <si>
+    <t>枞树</t>
+  </si>
+  <si>
+    <t>天安门广场</t>
+  </si>
+  <si>
+    <t>长滨</t>
+  </si>
+  <si>
+    <t>美朝</t>
+  </si>
+  <si>
+    <t>枫桥镇</t>
+  </si>
+  <si>
+    <t>冲绳岛</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>台次</t>
+  </si>
+  <si>
+    <t>墨尔本</t>
+  </si>
+  <si>
+    <t>佛罗里达</t>
+  </si>
+  <si>
+    <t>邢台</t>
+  </si>
+  <si>
+    <t>西昌</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>菲共</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>湘西</t>
+  </si>
+  <si>
+    <t>海峡</t>
+  </si>
+  <si>
+    <t>大洋</t>
+  </si>
+  <si>
+    <t>中心列</t>
+  </si>
+  <si>
+    <t>牡丹江市</t>
+  </si>
+  <si>
+    <t>嘉定</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>吉林省延边朝鲜族自治州</t>
+  </si>
+  <si>
+    <t>白洋淀</t>
+  </si>
+  <si>
+    <t>南京市</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>株洲</t>
+  </si>
+  <si>
+    <t>梅地亚</t>
+  </si>
+  <si>
+    <t>沙俄</t>
+  </si>
+  <si>
+    <t>阿尔及尔</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>四国</t>
+  </si>
+  <si>
+    <t>朝外</t>
+  </si>
+  <si>
+    <t>长寿</t>
+  </si>
+  <si>
+    <t>梅西</t>
+  </si>
+  <si>
+    <t>青岛港</t>
+  </si>
+  <si>
+    <t>西子湖畔</t>
+  </si>
+  <si>
+    <t>丹丹</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>渤海海峡</t>
+  </si>
+  <si>
+    <t>西站</t>
+  </si>
+  <si>
+    <t>蓝海</t>
+  </si>
+  <si>
+    <t>台州市</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>尼</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>漳平</t>
+  </si>
+  <si>
+    <t>上坡路</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>南昌市</t>
+  </si>
+  <si>
+    <t>大港</t>
+  </si>
+  <si>
+    <t>南开区</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>韩三国</t>
+  </si>
+  <si>
+    <t>内斯</t>
+  </si>
+  <si>
+    <t>阿利</t>
+  </si>
+  <si>
+    <t>卡门</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>克拉玛依油田</t>
+  </si>
+  <si>
+    <t>松江</t>
+  </si>
+  <si>
+    <t>北京地区</t>
+  </si>
+  <si>
+    <t>长大</t>
+  </si>
+  <si>
+    <t>太仓</t>
+  </si>
+  <si>
+    <t>美东</t>
+  </si>
+  <si>
+    <t>缅怀</t>
+  </si>
+  <si>
+    <t>台湾省</t>
+  </si>
+  <si>
+    <t>河津</t>
+  </si>
+  <si>
+    <t>湾区</t>
+  </si>
+  <si>
+    <t>沅江</t>
+  </si>
+  <si>
+    <t>九江</t>
+  </si>
+  <si>
+    <t>百色市</t>
+  </si>
+  <si>
+    <t>丹东</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>大洲</t>
+  </si>
+  <si>
+    <t>伊犁</t>
+  </si>
+  <si>
+    <t>香港市民</t>
+  </si>
+  <si>
+    <t>摩加迪沙</t>
+  </si>
+  <si>
+    <t>海原县</t>
+  </si>
+  <si>
+    <t>江东</t>
+  </si>
+  <si>
+    <t>欧元区</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>中梅西</t>
+  </si>
+  <si>
+    <t>灵宝市</t>
+  </si>
+  <si>
+    <t>印度洋</t>
+  </si>
+  <si>
+    <t>吉他</t>
+  </si>
+  <si>
+    <t>普拉亚</t>
+  </si>
+  <si>
+    <t>治本</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>滑坡</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>太阳穴</t>
+  </si>
+  <si>
+    <t>澳越</t>
+  </si>
+  <si>
+    <t>株洲市</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>澳门特别行政区</t>
+  </si>
+  <si>
+    <t>中蒙</t>
+  </si>
+  <si>
+    <t>深市</t>
+  </si>
+  <si>
+    <t>丽江市</t>
+  </si>
+  <si>
+    <t>铜陵市</t>
+  </si>
+  <si>
+    <t>鞍山市</t>
+  </si>
+  <si>
+    <t>石嘴山</t>
+  </si>
+  <si>
+    <t>景德镇市</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>南北</t>
+  </si>
+  <si>
+    <t>中断</t>
+  </si>
+  <si>
+    <t>威海</t>
+  </si>
+  <si>
+    <t>西藏地方</t>
+  </si>
+  <si>
+    <t>奎屯市</t>
+  </si>
+  <si>
+    <t>庆山</t>
+  </si>
+  <si>
+    <t>马国</t>
+  </si>
+  <si>
+    <t>南通市</t>
+  </si>
+  <si>
+    <t>英藏</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>衡水</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>南宁市</t>
+  </si>
+  <si>
+    <t>四海</t>
+  </si>
+  <si>
+    <t>福原</t>
+  </si>
+  <si>
+    <t>苏棣</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>芬格</t>
+  </si>
+  <si>
+    <t>朝阳镇</t>
+  </si>
+  <si>
+    <t>鄱阳湖</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>阜城县</t>
+  </si>
+  <si>
+    <t>南路</t>
+  </si>
+  <si>
+    <t>乌山</t>
+  </si>
+  <si>
+    <t>河村</t>
+  </si>
+  <si>
+    <t>阿兰</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>济州岛</t>
+  </si>
+  <si>
+    <t>浙大</t>
+  </si>
+  <si>
+    <t>罗兰</t>
+  </si>
+  <si>
+    <t>长春市</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>扬善</t>
+  </si>
+  <si>
+    <t>北约</t>
+  </si>
+  <si>
+    <t>维多利亚州</t>
+  </si>
+  <si>
+    <t>地中海</t>
+  </si>
+  <si>
+    <t>中俄</t>
+  </si>
+  <si>
+    <t>中甲</t>
+  </si>
+  <si>
+    <t>巴士</t>
+  </si>
+  <si>
+    <t>内湖</t>
+  </si>
+  <si>
+    <t>三湘</t>
+  </si>
+  <si>
+    <t>沙市</t>
+  </si>
+  <si>
+    <t>大都市</t>
+  </si>
+  <si>
+    <t>摩拜</t>
+  </si>
+  <si>
+    <t>嘉宾</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>惠港</t>
+  </si>
+  <si>
+    <t>潮州</t>
+  </si>
+  <si>
+    <t>天津港</t>
+  </si>
+  <si>
+    <t>华盛顿</t>
+  </si>
+  <si>
+    <t>维港</t>
+  </si>
+  <si>
+    <t>罗马帝国</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>四梁</t>
+  </si>
+  <si>
+    <t>阜新</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>浦东新区</t>
+  </si>
+  <si>
+    <t>六便士</t>
+  </si>
+  <si>
+    <t>怒江州</t>
+  </si>
+  <si>
+    <t>友谊关</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>德昌</t>
+  </si>
+  <si>
+    <t>一棵树</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>延华</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>大中华区</t>
+  </si>
+  <si>
+    <t>甘群</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>台盟</t>
+  </si>
+  <si>
+    <t>朔城区</t>
+  </si>
+  <si>
+    <t>中超联赛</t>
+  </si>
+  <si>
+    <t>中巴</t>
+  </si>
+  <si>
+    <t>台海</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>西长安街</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>漳平市</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>中卫</t>
+  </si>
+  <si>
+    <t>长岛</t>
+  </si>
+  <si>
+    <t>衡水市</t>
+  </si>
+  <si>
+    <t>印巴</t>
+  </si>
+  <si>
+    <t>胶澳</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>亚历山大</t>
+  </si>
+  <si>
+    <t>通辽市</t>
+  </si>
+  <si>
+    <t>汉普敦</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>象牙</t>
+  </si>
+  <si>
+    <t>串联</t>
+  </si>
+  <si>
+    <t>驻俄</t>
+  </si>
+  <si>
+    <t>波哥大</t>
+  </si>
+  <si>
+    <t>涉港</t>
+  </si>
+  <si>
+    <t>离岛</t>
+  </si>
+  <si>
+    <t>桃园市</t>
+  </si>
+  <si>
+    <t>珙县</t>
+  </si>
+  <si>
+    <t>朝来</t>
+  </si>
+  <si>
+    <t>东池</t>
+  </si>
+  <si>
+    <t>连云港市</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>俄美</t>
+  </si>
+  <si>
+    <t>赤水河</t>
+  </si>
+  <si>
+    <t>厦大</t>
+  </si>
+  <si>
+    <t>中关村</t>
+  </si>
+  <si>
+    <t>湄公河</t>
+  </si>
+  <si>
+    <t>福田</t>
+  </si>
+  <si>
+    <t>黄兴国</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>西蒙</t>
+  </si>
+  <si>
+    <t>愛</t>
+  </si>
+  <si>
+    <t>阿拉善盟</t>
+  </si>
+  <si>
+    <t>辽阳市</t>
+  </si>
+  <si>
+    <t>杭南</t>
+  </si>
+  <si>
+    <t>赣州</t>
+  </si>
+  <si>
+    <t>汨罗</t>
+  </si>
+  <si>
+    <t>阿里山</t>
+  </si>
+  <si>
+    <t>惠及</t>
+  </si>
+  <si>
+    <t>台风</t>
+  </si>
+  <si>
+    <t>淄博市</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>津轻海峡</t>
+  </si>
+  <si>
+    <t>莎士比亚</t>
+  </si>
+  <si>
+    <t>平南县</t>
+  </si>
+  <si>
+    <t>远洋</t>
+  </si>
+  <si>
+    <t>路西</t>
+  </si>
+  <si>
+    <t>恰尔</t>
+  </si>
+  <si>
+    <t>越野</t>
+  </si>
+  <si>
+    <t>台湾海峡</t>
+  </si>
+  <si>
+    <t>长滩</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>埃</t>
+  </si>
+  <si>
+    <t>白山市</t>
+  </si>
+  <si>
+    <t>驻港</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>珍珠港</t>
+  </si>
+  <si>
+    <t>盘锦市</t>
+  </si>
+  <si>
+    <t>罗马</t>
+  </si>
+  <si>
+    <t>中日韩</t>
+  </si>
+  <si>
+    <t>大海</t>
+  </si>
+  <si>
+    <t>满屋</t>
+  </si>
+  <si>
+    <t>建国</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>吉首市</t>
+  </si>
+  <si>
+    <t>温州市</t>
+  </si>
+  <si>
+    <t>翼龙</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>屏东</t>
+  </si>
+  <si>
+    <t>台湾岛</t>
+  </si>
+  <si>
+    <t>亚的斯亚贝巴</t>
+  </si>
+  <si>
+    <t>肇庆</t>
+  </si>
+  <si>
+    <t>新浦</t>
+  </si>
+  <si>
+    <t>亚洲区</t>
+  </si>
+  <si>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>美台</t>
+  </si>
+  <si>
+    <t>三本</t>
+  </si>
+  <si>
+    <t>咸镜南道</t>
+  </si>
+  <si>
+    <t>息县</t>
+  </si>
+  <si>
+    <t>内华达</t>
+  </si>
+  <si>
+    <t>北京天安门广场</t>
+  </si>
+  <si>
+    <t>青浦</t>
+  </si>
+  <si>
+    <t>上山</t>
+  </si>
+  <si>
+    <t>福田区</t>
+  </si>
+  <si>
+    <t>塞</t>
+  </si>
+  <si>
+    <t>德阳</t>
+  </si>
+  <si>
+    <t>中山堂</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>三河</t>
+  </si>
+  <si>
+    <t>圣地亚哥</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>廊坊</t>
+  </si>
+  <si>
+    <t>台联</t>
+  </si>
+  <si>
+    <t>临沂市</t>
+  </si>
+  <si>
+    <t>永暑</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>东亚地区</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>宜宾市</t>
+  </si>
+  <si>
+    <t>满街</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>福沙</t>
+  </si>
+  <si>
+    <t>潍坊</t>
+  </si>
+  <si>
+    <t>日本海</t>
+  </si>
+  <si>
+    <t>邵阳市</t>
+  </si>
+  <si>
+    <t>通州</t>
+  </si>
+  <si>
+    <t>广</t>
+  </si>
+  <si>
+    <t>驻马</t>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+  </si>
+  <si>
+    <t>广厦</t>
+  </si>
+  <si>
+    <t>江河</t>
+  </si>
+  <si>
+    <t>朔州市</t>
+  </si>
+  <si>
+    <t>大省</t>
+  </si>
+  <si>
+    <t>俄国</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>桃园</t>
+  </si>
+  <si>
+    <t>法治化</t>
+  </si>
+  <si>
+    <t>百联</t>
+  </si>
+  <si>
+    <t>哥哥</t>
+  </si>
+  <si>
+    <t>日西</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>哈尔滨市</t>
+  </si>
+  <si>
+    <t>平邑县</t>
+  </si>
+  <si>
+    <t>辽源市</t>
+  </si>
+  <si>
+    <t>日内瓦</t>
+  </si>
+  <si>
+    <t>喀布尔</t>
+  </si>
+  <si>
+    <t>阿尼古</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>七台河市</t>
+  </si>
+  <si>
+    <t>北京中山公园</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>广元市</t>
   </si>
   <si>
     <t>中兴</t>
   </si>
   <si>
-    <t>维多利亚州</t>
-  </si>
-  <si>
-    <t>阿拉善盟</t>
-  </si>
-  <si>
-    <t>连云港市</t>
-  </si>
-  <si>
-    <t>台湾省</t>
-  </si>
-  <si>
-    <t>邵阳市</t>
+    <t>拜拜</t>
+  </si>
+  <si>
+    <t>东北地区</t>
+  </si>
+  <si>
+    <t>高黎贡山</t>
+  </si>
+  <si>
+    <t>瓯海区</t>
+  </si>
+  <si>
+    <t>石景山区</t>
+  </si>
+  <si>
+    <t>瑞华</t>
+  </si>
+  <si>
+    <t>内马尔</t>
+  </si>
+  <si>
+    <t>西太平洋</t>
+  </si>
+  <si>
+    <t>海淀区</t>
+  </si>
+  <si>
+    <t>三国</t>
+  </si>
+  <si>
+    <t>罗兴亚</t>
+  </si>
+  <si>
+    <t>八连</t>
+  </si>
+  <si>
+    <t>中美合作</t>
+  </si>
+  <si>
+    <t>雅加达</t>
   </si>
   <si>
     <t>独流镇</t>
   </si>
   <si>
-    <t>潮州</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
-  </si>
-  <si>
-    <t>关岛</t>
-  </si>
-  <si>
-    <t>澳越</t>
-  </si>
-  <si>
-    <t>乌鲁木齐</t>
-  </si>
-  <si>
-    <t>东池</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>六便士</t>
-  </si>
-  <si>
-    <t>罗兴亚</t>
-  </si>
-  <si>
-    <t>铜陵市</t>
-  </si>
-  <si>
-    <t>罗马帝国</t>
-  </si>
-  <si>
-    <t>拜拜</t>
-  </si>
-  <si>
-    <t>浙大</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>盘锦市</t>
-  </si>
-  <si>
-    <t>河村</t>
-  </si>
-  <si>
-    <t>海淀区</t>
-  </si>
-  <si>
-    <t>中超联赛</t>
-  </si>
-  <si>
-    <t>那不勒斯</t>
-  </si>
-  <si>
-    <t>赤水河</t>
-  </si>
-  <si>
-    <t>阜新</t>
-  </si>
-  <si>
-    <t>株洲</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>内华达</t>
-  </si>
-  <si>
-    <t>平南县</t>
-  </si>
-  <si>
-    <t>西子湖畔</t>
-  </si>
-  <si>
-    <t>沧桑</t>
-  </si>
-  <si>
-    <t>广元市</t>
-  </si>
-  <si>
-    <t>绵阳</t>
-  </si>
-  <si>
-    <t>梅地亚</t>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>东湖</t>
+  </si>
+  <si>
+    <t>波顿</t>
   </si>
   <si>
     <t>普及</t>
   </si>
   <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>灵宝市</t>
-  </si>
-  <si>
-    <t>吉林省延边朝鲜族自治州</t>
-  </si>
-  <si>
-    <t>罗兰</t>
-  </si>
-  <si>
-    <t>苏联</t>
-  </si>
-  <si>
-    <t>福田区</t>
-  </si>
-  <si>
-    <t>滑坡</t>
-  </si>
-  <si>
-    <t>丹丹</t>
-  </si>
-  <si>
-    <t>泸水</t>
-  </si>
-  <si>
-    <t>石景山区</t>
-  </si>
-  <si>
-    <t>衡水市</t>
-  </si>
-  <si>
-    <t>大连市</t>
-  </si>
-  <si>
-    <t>尼</t>
-  </si>
-  <si>
-    <t>丽江市</t>
-  </si>
-  <si>
-    <t>北京地区</t>
-  </si>
-  <si>
-    <t>七台河市</t>
-  </si>
-  <si>
-    <t>梅西</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>海南省</t>
-  </si>
-  <si>
-    <t>朝阳区</t>
-  </si>
-  <si>
-    <t>八连</t>
-  </si>
-  <si>
-    <t>息县</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>台风</t>
-  </si>
-  <si>
-    <t>吉他</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>廊坊</t>
-  </si>
-  <si>
-    <t>漳平</t>
-  </si>
-  <si>
-    <t>亚的斯亚贝巴</t>
-  </si>
-  <si>
-    <t>南太平洋</t>
-  </si>
-  <si>
-    <t>石嘴山</t>
-  </si>
-  <si>
-    <t>愛</t>
-  </si>
-  <si>
-    <t>串联</t>
-  </si>
-  <si>
-    <t>百色市</t>
-  </si>
-  <si>
-    <t>威海</t>
-  </si>
-  <si>
-    <t>俄国</t>
-  </si>
-  <si>
-    <t>黄兴国</t>
-  </si>
-  <si>
-    <t>松江</t>
-  </si>
-  <si>
-    <t>韩三国</t>
-  </si>
-  <si>
-    <t>伊犁</t>
-  </si>
-  <si>
-    <t>嘉定</t>
-  </si>
-  <si>
-    <t>长大</t>
-  </si>
-  <si>
-    <t>维港</t>
-  </si>
-  <si>
-    <t>台北市</t>
-  </si>
-  <si>
-    <t>日本海</t>
-  </si>
-  <si>
-    <t>雅加达</t>
-  </si>
-  <si>
-    <t>枫桥镇</t>
-  </si>
-  <si>
-    <t>朝来</t>
-  </si>
-  <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>亚历山大</t>
-  </si>
-  <si>
-    <t>株洲市</t>
-  </si>
-  <si>
-    <t>中亚地区</t>
-  </si>
-  <si>
-    <t>摩拜</t>
-  </si>
-  <si>
-    <t>中卫</t>
-  </si>
-  <si>
-    <t>澳</t>
-  </si>
-  <si>
-    <t>南路</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>香水</t>
-  </si>
-  <si>
-    <t>大洋</t>
-  </si>
-  <si>
-    <t>珙县</t>
-  </si>
-  <si>
-    <t>菲共</t>
-  </si>
-  <si>
-    <t>景德镇市</t>
-  </si>
-  <si>
-    <t>山西省</t>
-  </si>
-  <si>
-    <t>三亚</t>
-  </si>
-  <si>
-    <t>福</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>江东</t>
-  </si>
-  <si>
-    <t>高黎贡山</t>
-  </si>
-  <si>
-    <t>福田</t>
-  </si>
-  <si>
-    <t>高雄市</t>
-  </si>
-  <si>
-    <t>江河</t>
-  </si>
-  <si>
-    <t>辽源市</t>
-  </si>
-  <si>
-    <t>湛江</t>
-  </si>
-  <si>
-    <t>宜宾市</t>
-  </si>
-  <si>
-    <t>哥哥</t>
-  </si>
-  <si>
-    <t>友谊关</t>
+    <t>远东</t>
+  </si>
+  <si>
+    <t>大明湖</t>
+  </si>
+  <si>
+    <t>台东县</t>
+  </si>
+  <si>
+    <t>欧美</t>
+  </si>
+  <si>
+    <t>延边</t>
+  </si>
+  <si>
+    <t>诸暨市</t>
   </si>
   <si>
     <t>泰</t>
   </si>
   <si>
-    <t>海原县</t>
-  </si>
-  <si>
-    <t>恰尔</t>
-  </si>
-  <si>
-    <t>中蒙</t>
-  </si>
-  <si>
-    <t>天安门广场</t>
-  </si>
-  <si>
-    <t>潍坊</t>
-  </si>
-  <si>
-    <t>大都市</t>
-  </si>
-  <si>
-    <t>休斯敦</t>
-  </si>
-  <si>
-    <t>福沙</t>
-  </si>
-  <si>
-    <t>普拉亚</t>
-  </si>
-  <si>
-    <t>青浦</t>
-  </si>
-  <si>
-    <t>奎屯市</t>
-  </si>
-  <si>
-    <t>深港</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>沙俄</t>
-  </si>
-  <si>
-    <t>印度洋</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>冲绳岛</t>
-  </si>
-  <si>
-    <t>大港</t>
-  </si>
-  <si>
-    <t>广厦</t>
-  </si>
-  <si>
-    <t>贵阳</t>
-  </si>
-  <si>
-    <t>东北地区</t>
-  </si>
-  <si>
-    <t>治本</t>
+    <t>开县</t>
   </si>
   <si>
     <t>北风</t>
-  </si>
-  <si>
-    <t>辽阳市</t>
-  </si>
-  <si>
-    <t>台联</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>温州市</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>香港市民</t>
-  </si>
-  <si>
-    <t>蓝海</t>
-  </si>
-  <si>
-    <t>台次</t>
-  </si>
-  <si>
-    <t>驻港</t>
-  </si>
-  <si>
-    <t>鄱阳湖</t>
-  </si>
-  <si>
-    <t>喀布尔</t>
-  </si>
-  <si>
-    <t>台湾海峡</t>
-  </si>
-  <si>
-    <t>西长安街</t>
-  </si>
-  <si>
-    <t>延边</t>
-  </si>
-  <si>
-    <t>嘉宾</t>
-  </si>
-  <si>
-    <t>南宁市</t>
-  </si>
-  <si>
-    <t>三本</t>
-  </si>
-  <si>
-    <t>内斯</t>
-  </si>
-  <si>
-    <t>中关村</t>
-  </si>
-  <si>
-    <t>南京市</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>满屋</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-  <si>
-    <t>哈尔滨市</t>
-  </si>
-  <si>
-    <t>济州岛</t>
-  </si>
-  <si>
-    <t>阿尼古</t>
-  </si>
-  <si>
-    <t>翼龙</t>
-  </si>
-  <si>
-    <t>涉港</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>九江</t>
-  </si>
-  <si>
-    <t>汨罗</t>
-  </si>
-  <si>
-    <t>上山</t>
-  </si>
-  <si>
-    <t>南北</t>
-  </si>
-  <si>
-    <t>离岛</t>
-  </si>
-  <si>
-    <t>惠港</t>
-  </si>
-  <si>
-    <t>花钱买</t>
-  </si>
-  <si>
-    <t>驻俄</t>
-  </si>
-  <si>
-    <t>湾区</t>
-  </si>
-  <si>
-    <t>朝阳镇</t>
-  </si>
-  <si>
-    <t>哈尔滨</t>
-  </si>
-  <si>
-    <t>苏棣</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>阿里山</t>
-  </si>
-  <si>
-    <t>诸暨市</t>
-  </si>
-  <si>
-    <t>青海</t>
-  </si>
-  <si>
-    <t>南通市</t>
-  </si>
-  <si>
-    <t>美东</t>
-  </si>
-  <si>
-    <t>咸镜南道</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>象牙</t>
-  </si>
-  <si>
-    <t>汉普敦</t>
-  </si>
-  <si>
-    <t>长滩</t>
-  </si>
-  <si>
-    <t>波哥大</t>
-  </si>
-  <si>
-    <t>阿利</t>
-  </si>
-  <si>
-    <t>南宁</t>
-  </si>
-  <si>
-    <t>吉首市</t>
-  </si>
-  <si>
-    <t>朔州市</t>
-  </si>
-  <si>
-    <t>印巴</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>巴士</t>
-  </si>
-  <si>
-    <t>四梁</t>
-  </si>
-  <si>
-    <t>三国</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>深市</t>
-  </si>
-  <si>
-    <t>通辽市</t>
-  </si>
-  <si>
-    <t>越野</t>
-  </si>
-  <si>
-    <t>阿尔及尔</t>
-  </si>
-  <si>
-    <t>甘群</t>
-  </si>
-  <si>
-    <t>美朝</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>大中华区</t>
-  </si>
-  <si>
-    <t>怒江州</t>
-  </si>
-  <si>
-    <t>中山堂</t>
-  </si>
-  <si>
-    <t>西蒙</t>
-  </si>
-  <si>
-    <t>辉南县</t>
-  </si>
-  <si>
-    <t>内马尔</t>
-  </si>
-  <si>
-    <t>建国</t>
-  </si>
-  <si>
-    <t>淄博市</t>
-  </si>
-  <si>
-    <t>三湘</t>
-  </si>
-  <si>
-    <t>惠州</t>
-  </si>
-  <si>
-    <t>朝外</t>
-  </si>
-  <si>
-    <t>华盛顿</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>太阳穴</t>
-  </si>
-  <si>
-    <t>圣地亚哥</t>
-  </si>
-  <si>
-    <t>胶澳</t>
-  </si>
-  <si>
-    <t>沙市</t>
-  </si>
-  <si>
-    <t>广</t>
-  </si>
-  <si>
-    <t>满街</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>台海</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>百联</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>屏东</t>
-  </si>
-  <si>
-    <t>大省</t>
-  </si>
-  <si>
-    <t>太仓</t>
-  </si>
-  <si>
-    <t>福原</t>
-  </si>
-  <si>
-    <t>青岛港</t>
-  </si>
-  <si>
-    <t>白俄</t>
-  </si>
-  <si>
-    <t>阜城县</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>浦东新区</t>
-  </si>
-  <si>
-    <t>湘西</t>
-  </si>
-  <si>
-    <t>大洲</t>
-  </si>
-  <si>
-    <t>白山市</t>
-  </si>
-  <si>
-    <t>常州</t>
-  </si>
-  <si>
-    <t>美台</t>
-  </si>
-  <si>
-    <t>开县</t>
-  </si>
-  <si>
-    <t>西站</t>
-  </si>
-  <si>
-    <t>许昌市</t>
-  </si>
-  <si>
-    <t>马国</t>
-  </si>
-  <si>
-    <t>沅江</t>
-  </si>
-  <si>
-    <t>杭南</t>
-  </si>
-  <si>
-    <t>天津港</t>
-  </si>
-  <si>
-    <t>北约</t>
-  </si>
-  <si>
-    <t>平邑县</t>
-  </si>
-  <si>
-    <t>衡水</t>
-  </si>
-  <si>
-    <t>波顿</t>
-  </si>
-  <si>
-    <t>南开区</t>
-  </si>
-  <si>
-    <t>远洋</t>
-  </si>
-  <si>
-    <t>德阳</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
-    <t>芬格</t>
-  </si>
-  <si>
-    <t>西欧</t>
-  </si>
-  <si>
-    <t>日西</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>东亚地区</t>
-  </si>
-  <si>
-    <t>罗马</t>
-  </si>
-  <si>
-    <t>鞍山市</t>
-  </si>
-  <si>
-    <t>津轻海峡</t>
-  </si>
-  <si>
-    <t>中心列</t>
-  </si>
-  <si>
-    <t>亚洲区</t>
-  </si>
-  <si>
-    <t>法治化</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>通州</t>
-  </si>
-  <si>
-    <t>四海</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t>西藏地方</t>
-  </si>
-  <si>
-    <t>北京天安门广场</t>
-  </si>
-  <si>
-    <t>扬善</t>
-  </si>
-  <si>
-    <t>路西</t>
-  </si>
-  <si>
-    <t>南昌市</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>湖</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>延华</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>赣州</t>
-  </si>
-  <si>
-    <t>邢台</t>
-  </si>
-  <si>
-    <t>驻马</t>
-  </si>
-  <si>
-    <t>远东</t>
-  </si>
-  <si>
-    <t>墨尔本</t>
-  </si>
-  <si>
-    <t>欧元区</t>
-  </si>
-  <si>
-    <t>枞树</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>东湖</t>
-  </si>
-  <si>
-    <t>永暑</t>
-  </si>
-  <si>
-    <t>长滨</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>塞</t>
-  </si>
-  <si>
-    <t>长寿</t>
-  </si>
-  <si>
-    <t>俄美</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>中梅西</t>
-  </si>
-  <si>
-    <t>桃园</t>
-  </si>
-  <si>
-    <t>一棵树</t>
-  </si>
-  <si>
-    <t>台湾岛</t>
-  </si>
-  <si>
-    <t>莎士比亚</t>
-  </si>
-  <si>
-    <t>北京中山公园</t>
-  </si>
-  <si>
-    <t>海港</t>
-  </si>
-  <si>
-    <t>新浦</t>
-  </si>
-  <si>
-    <t>四国</t>
-  </si>
-  <si>
-    <t>西藏</t>
-  </si>
-  <si>
-    <t>长春市</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>中甲</t>
-  </si>
-  <si>
-    <t>台州市</t>
-  </si>
-  <si>
-    <t>漳平市</t>
-  </si>
-  <si>
-    <t>埃</t>
-  </si>
-  <si>
-    <t>佛罗里达</t>
-  </si>
-  <si>
-    <t>珍珠港</t>
-  </si>
-  <si>
-    <t>蜀中</t>
-  </si>
-  <si>
-    <t>牡丹江市</t>
-  </si>
-  <si>
-    <t>三河</t>
-  </si>
-  <si>
-    <t>德昌</t>
-  </si>
-  <si>
-    <t>台东县</t>
-  </si>
-  <si>
-    <t>中断</t>
-  </si>
-  <si>
-    <t>大明湖</t>
-  </si>
-  <si>
-    <t>中美合作</t>
-  </si>
-  <si>
-    <t>扬州</t>
-  </si>
-  <si>
-    <t>乌山</t>
-  </si>
-  <si>
-    <t>中俄</t>
-  </si>
-  <si>
-    <t>河津</t>
-  </si>
-  <si>
-    <t>中日韩</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>厦大</t>
-  </si>
-  <si>
-    <t>贵州</t>
-  </si>
-  <si>
-    <t>南湖</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>闽江</t>
-  </si>
-  <si>
-    <t>摩加迪沙</t>
-  </si>
-  <si>
-    <t>上港</t>
-  </si>
-  <si>
-    <t>西昌</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>台盟</t>
-  </si>
-  <si>
-    <t>缅怀</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>欧美</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>渤海海峡</t>
-  </si>
-  <si>
-    <t>中巴</t>
-  </si>
-  <si>
-    <t>丹东</t>
-  </si>
-  <si>
-    <t>惠及</t>
-  </si>
-  <si>
-    <t>西太平洋</t>
-  </si>
-  <si>
-    <t>日内瓦</t>
-  </si>
-  <si>
-    <t>克拉玛依油田</t>
-  </si>
-  <si>
-    <t>英藏</t>
-  </si>
-  <si>
-    <t>庆山</t>
-  </si>
-  <si>
-    <t>阿兰</t>
-  </si>
-  <si>
-    <t>内湖</t>
-  </si>
-  <si>
-    <t>瑞华</t>
-  </si>
-  <si>
-    <t>卡门</t>
-  </si>
-  <si>
-    <t>湄公河</t>
-  </si>
-  <si>
-    <t>朔城区</t>
-  </si>
-  <si>
-    <t>上坡路</t>
-  </si>
-  <si>
-    <t>澳门特别行政区</t>
-  </si>
-  <si>
-    <t>海峡</t>
-  </si>
-  <si>
-    <t>桃园市</t>
-  </si>
-  <si>
-    <t>长岛</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>白洋淀</t>
-  </si>
-  <si>
-    <t>大海</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>瓯海区</t>
-  </si>
-  <si>
-    <t>地中海</t>
-  </si>
-  <si>
-    <t>肇庆</t>
   </si>
 </sst>
 </file>

--- a/src/out/好书共享.xlsx
+++ b/src/out/好书共享.xlsx
@@ -129,12 +129,12 @@
     <t>内蒙古-卢宇(1145522803)</t>
   </si>
   <si>
+    <t>广西  宁(1951618519)</t>
+  </si>
+  <si>
     <t>2083686645(2083686645)</t>
   </si>
   <si>
-    <t>广西  宁(1951618519)</t>
-  </si>
-  <si>
     <t>系统消息(10000)</t>
   </si>
   <si>
@@ -180,288 +180,288 @@
     <t>(1951618519)</t>
   </si>
   <si>
+    <t>(1427270056)</t>
+  </si>
+  <si>
     <t>毛衣和衬衫(1511868393)</t>
   </si>
   <si>
-    <t>(1427270056)</t>
+    <t>武汉的同学(1850923342)</t>
+  </si>
+  <si>
+    <t>云南     Angle   微笑(497232985)</t>
+  </si>
+  <si>
+    <t>武汉_彭美辰(791865372)</t>
+  </si>
+  <si>
+    <t>武汉--煮的(1063168952)</t>
   </si>
   <si>
     <t>1018611007(1018611007)</t>
   </si>
   <si>
-    <t>武汉--煮的(1063168952)</t>
-  </si>
-  <si>
-    <t>云南     Angle   微笑(497232985)</t>
-  </si>
-  <si>
-    <t>武汉的同学(1850923342)</t>
-  </si>
-  <si>
-    <t>武汉_彭美辰(791865372)</t>
-  </si>
-  <si>
     <t>曼曼(596765682)</t>
   </si>
   <si>
+    <t>财政～1601吴一波(690511572)</t>
+  </si>
+  <si>
     <t>武汉～孤独是我(690511572)</t>
   </si>
   <si>
     <t>2814869857(2814869857)</t>
   </si>
   <si>
-    <t>财政～1601吴一波(690511572)</t>
-  </si>
-  <si>
     <t>湖北 望山(1124847169)</t>
   </si>
   <si>
+    <t>云南   谭巧(635250290)</t>
+  </si>
+  <si>
+    <t>1427270056(1427270056)</t>
+  </si>
+  <si>
+    <t>乾 ﹠魂·不吝(2510377152)</t>
+  </si>
+  <si>
     <t>(2447846558)</t>
   </si>
   <si>
-    <t>乾 ﹠魂·不吝(2510377152)</t>
+    <t>493650969(493650969)</t>
+  </si>
+  <si>
+    <t>1850923342(1850923342)</t>
   </si>
   <si>
     <t>湖北—根叔(993448170)</t>
   </si>
   <si>
-    <t>云南   谭巧(635250290)</t>
-  </si>
-  <si>
     <t>昭通-马威心理分析(1812549176)</t>
   </si>
   <si>
-    <t>1850923342(1850923342)</t>
-  </si>
-  <si>
-    <t>1427270056(1427270056)</t>
-  </si>
-  <si>
-    <t>493650969(493650969)</t>
+    <t>(2503036233)</t>
+  </si>
+  <si>
+    <t>地球上     瑟瑟&lt;gggggggggggggggg_9@163.com&gt;</t>
+  </si>
+  <si>
+    <t>1951618519(1951618519)</t>
   </si>
   <si>
     <t>云南       小飞(1491240639)</t>
   </si>
   <si>
-    <t>1951618519(1951618519)</t>
-  </si>
-  <si>
-    <t>(2503036233)</t>
-  </si>
-  <si>
-    <t>地球上     瑟瑟&lt;gggggggggggggggg_9@163.com&gt;</t>
+    <t>993448170(993448170)</t>
+  </si>
+  <si>
+    <t>甘肃  仓鼠(329834712)</t>
+  </si>
+  <si>
+    <t>武汉  晨(1773663797)</t>
+  </si>
+  <si>
+    <t>小天(3485476971)</t>
+  </si>
+  <si>
+    <t>武汉 古月照今尘(2510377152)</t>
+  </si>
+  <si>
+    <t>(2475038603)</t>
+  </si>
+  <si>
+    <t>武汉一静穆时光(99327213)</t>
+  </si>
+  <si>
+    <t>1440449040(1440449040)</t>
+  </si>
+  <si>
+    <t>微微一笑(2971344137)</t>
+  </si>
+  <si>
+    <t>微微一笑(3530718317)</t>
   </si>
   <si>
     <t>云南  风散か枫留(2503036233)</t>
   </si>
   <si>
-    <t>小天(3485476971)</t>
-  </si>
-  <si>
-    <t>微微一笑(2971344137)</t>
-  </si>
-  <si>
-    <t>(2475038603)</t>
-  </si>
-  <si>
-    <t>武汉  晨(1773663797)</t>
-  </si>
-  <si>
     <t>云南 迷失(1715210485)</t>
   </si>
   <si>
-    <t>甘肃  仓鼠(329834712)</t>
-  </si>
-  <si>
-    <t>微微一笑(3530718317)</t>
-  </si>
-  <si>
-    <t>993448170(993448170)</t>
-  </si>
-  <si>
-    <t>1440449040(1440449040)</t>
-  </si>
-  <si>
-    <t>武汉一静穆时光(99327213)</t>
-  </si>
-  <si>
-    <t>武汉 古月照今尘(2510377152)</t>
+    <t>广东 聆心(918188673)</t>
+  </si>
+  <si>
+    <t>武汉～秋心(594622816)</t>
+  </si>
+  <si>
+    <t>(429371379)</t>
+  </si>
+  <si>
+    <t>云南。。罗忆安(1419200562)</t>
+  </si>
+  <si>
+    <t>2209053097(2209053097)</t>
+  </si>
+  <si>
+    <t>641031655(641031655)</t>
+  </si>
+  <si>
+    <t>(1850923342)</t>
+  </si>
+  <si>
+    <t>陕西 逗逗(2315085164)</t>
+  </si>
+  <si>
+    <t>云南   小胡(1765769897)</t>
+  </si>
+  <si>
+    <t>1850455645(1850455645)</t>
+  </si>
+  <si>
+    <t>秋心(594622816)</t>
   </si>
   <si>
     <t>1752451505(1752451505)</t>
   </si>
   <si>
-    <t>641031655(641031655)</t>
-  </si>
-  <si>
-    <t>1850455645(1850455645)</t>
-  </si>
-  <si>
-    <t>(1850923342)</t>
+    <t>(1124847169)</t>
   </si>
   <si>
     <t>(957946932)</t>
   </si>
   <si>
-    <t>(429371379)</t>
-  </si>
-  <si>
-    <t>陕西 逗逗(2315085164)</t>
-  </si>
-  <si>
-    <t>广东 聆心(918188673)</t>
-  </si>
-  <si>
     <t>武汉……小执着丶(1091220471)</t>
   </si>
   <si>
-    <t>云南。。罗忆安(1419200562)</t>
-  </si>
-  <si>
-    <t>云南   小胡(1765769897)</t>
-  </si>
-  <si>
-    <t>秋心(594622816)</t>
-  </si>
-  <si>
-    <t>2209053097(2209053097)</t>
-  </si>
-  <si>
-    <t>(1124847169)</t>
-  </si>
-  <si>
     <t>湖北 小欣(547894438)</t>
   </si>
   <si>
-    <t>武汉～秋心(594622816)</t>
+    <t>1625260485(1625260485)</t>
+  </si>
+  <si>
+    <t>广西，杨艺萍(2210725638)</t>
+  </si>
+  <si>
+    <t>起个什么名字呢(1394581957)</t>
+  </si>
+  <si>
+    <t>武汉~太阳花(234120868)</t>
+  </si>
+  <si>
+    <t>🍁轻描&amp;淡写🍁(2499254683)</t>
+  </si>
+  <si>
+    <t>湖北⭐少年(3530718317)</t>
+  </si>
+  <si>
+    <t>祥云~(522209913)</t>
+  </si>
+  <si>
+    <t>(493650969)</t>
+  </si>
+  <si>
+    <t>(1773663797)</t>
+  </si>
+  <si>
+    <t>谁与流年共初识(1148381487)</t>
+  </si>
+  <si>
+    <t>(1018611007)</t>
+  </si>
+  <si>
+    <t>不是弱智(413385329)</t>
+  </si>
+  <si>
+    <t>(2327689971)</t>
+  </si>
+  <si>
+    <t>1148381487(1148381487)</t>
+  </si>
+  <si>
+    <t>武汉 陈浩(892213251)</t>
+  </si>
+  <si>
+    <t>"专业&amp;卖萌20年」(572603673)</t>
+  </si>
+  <si>
+    <t>(714083433)</t>
+  </si>
+  <si>
+    <t>武汉～祺祺(957862124)</t>
+  </si>
+  <si>
+    <t>黄家湖 阚兰(2471374146)</t>
+  </si>
+  <si>
+    <t>香水百合(507510662)</t>
+  </si>
+  <si>
+    <t>(875483801)</t>
+  </si>
+  <si>
+    <t>2662195723(2662195723)</t>
+  </si>
+  <si>
+    <t>四川  梧桐(2673236047)</t>
+  </si>
+  <si>
+    <t>2503036233(2503036233)</t>
+  </si>
+  <si>
+    <t>请叫我小夫子(425779927)</t>
+  </si>
+  <si>
+    <t>(784380833)</t>
+  </si>
+  <si>
+    <t>云南。。。(2563421535)</t>
+  </si>
+  <si>
+    <t>湖北，S(1872736162)</t>
   </si>
   <si>
     <t>童年(3530718317)</t>
   </si>
   <si>
-    <t>香水百合(507510662)</t>
+    <t>(425779927)</t>
+  </si>
+  <si>
+    <t>云南  威宝(1812549176)</t>
+  </si>
+  <si>
+    <t>329834712(329834712)</t>
+  </si>
+  <si>
+    <t>湖北 雪莲(1356942030)</t>
   </si>
   <si>
     <t>梧桐萋萋(2673236047)</t>
   </si>
   <si>
-    <t>祥云~(522209913)</t>
-  </si>
-  <si>
-    <t>1625260485(1625260485)</t>
-  </si>
-  <si>
-    <t>武汉～祺祺(957862124)</t>
-  </si>
-  <si>
-    <t>湖北⭐少年(3530718317)</t>
-  </si>
-  <si>
-    <t>广西，杨艺萍(2210725638)</t>
+    <t>leaf(2562604241)</t>
+  </si>
+  <si>
+    <t>597728956(597728956)</t>
   </si>
   <si>
     <t>光头强(3454585763)</t>
   </si>
   <si>
-    <t>(875483801)</t>
-  </si>
-  <si>
-    <t>(1018611007)</t>
-  </si>
-  <si>
-    <t>黄家湖 阚兰(2471374146)</t>
+    <t>2447846558(2447846558)</t>
   </si>
   <si>
     <t>(975640704)</t>
   </si>
   <si>
-    <t>(493650969)</t>
-  </si>
-  <si>
-    <t>2447846558(2447846558)</t>
-  </si>
-  <si>
-    <t>四川  梧桐(2673236047)</t>
-  </si>
-  <si>
-    <t>不是弱智(413385329)</t>
-  </si>
-  <si>
-    <t>起个什么名字呢(1394581957)</t>
-  </si>
-  <si>
-    <t>597728956(597728956)</t>
+    <t>(956181916)</t>
   </si>
   <si>
     <t>忽然之间(635250290)</t>
   </si>
   <si>
-    <t>(1773663797)</t>
-  </si>
-  <si>
-    <t>329834712(329834712)</t>
-  </si>
-  <si>
-    <t>云南。。。(2563421535)</t>
-  </si>
-  <si>
-    <t>(956181916)</t>
-  </si>
-  <si>
-    <t>(714083433)</t>
-  </si>
-  <si>
-    <t>(2327689971)</t>
-  </si>
-  <si>
-    <t>谁与流年共初识(1148381487)</t>
-  </si>
-  <si>
-    <t>请叫我小夫子(425779927)</t>
-  </si>
-  <si>
-    <t>leaf(2562604241)</t>
-  </si>
-  <si>
-    <t>武汉 陈浩(892213251)</t>
-  </si>
-  <si>
-    <t>2662195723(2662195723)</t>
-  </si>
-  <si>
-    <t>(784380833)</t>
-  </si>
-  <si>
-    <t>湖北 雪莲(1356942030)</t>
-  </si>
-  <si>
     <t>(740478155)</t>
   </si>
   <si>
-    <t>2503036233(2503036233)</t>
-  </si>
-  <si>
-    <t>武汉~太阳花(234120868)</t>
-  </si>
-  <si>
-    <t>云南  威宝(1812549176)</t>
-  </si>
-  <si>
-    <t>"专业&amp;卖萌20年」(572603673)</t>
-  </si>
-  <si>
-    <t>1148381487(1148381487)</t>
-  </si>
-  <si>
-    <t>(425779927)</t>
-  </si>
-  <si>
-    <t>🍁轻描&amp;淡写🍁(2499254683)</t>
-  </si>
-  <si>
-    <t>湖北，S(1872736162)</t>
-  </si>
-  <si>
     <t>词汇</t>
   </si>
   <si>
@@ -519,31 +519,34 @@
     <t>菲律宾</t>
   </si>
   <si>
+    <t>福建</t>
+  </si>
+  <si>
     <t>南海</t>
   </si>
   <si>
-    <t>福建</t>
+    <t>奥巴马</t>
   </si>
   <si>
     <t>东西</t>
   </si>
   <si>
-    <t>奥巴马</t>
-  </si>
-  <si>
     <t>马来西亚</t>
   </si>
   <si>
     <t>印度</t>
   </si>
   <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
     <t>海洋</t>
   </si>
   <si>
-    <t>广西</t>
-  </si>
-  <si>
-    <t>印尼</t>
+    <t>河南</t>
   </si>
   <si>
     <t>亚洲</t>
@@ -552,1678 +555,1675 @@
     <t>英国</t>
   </si>
   <si>
-    <t>河南</t>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>湖南</t>
   </si>
   <si>
     <t>台湾地区</t>
   </si>
   <si>
-    <t>山西</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>湖南</t>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>浙江</t>
   </si>
   <si>
     <t>上市</t>
   </si>
   <si>
-    <t>河北</t>
-  </si>
-  <si>
-    <t>浙江</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>辽宁</t>
+    <t>美丽</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>杭州</t>
   </si>
   <si>
     <t>台北</t>
   </si>
   <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
     <t>深度</t>
   </si>
   <si>
+    <t>台独</t>
+  </si>
+  <si>
+    <t>古城</t>
+  </si>
+  <si>
+    <t>丽江</t>
+  </si>
+  <si>
     <t>普京</t>
   </si>
   <si>
-    <t>外国</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>台独</t>
-  </si>
-  <si>
-    <t>美丽</t>
-  </si>
-  <si>
-    <t>古城</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>内蒙古</t>
-  </si>
-  <si>
-    <t>丽江</t>
-  </si>
-  <si>
-    <t>德国</t>
+    <t>美</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>东京</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>黄河</t>
   </si>
   <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>江西</t>
-  </si>
-  <si>
-    <t>美</t>
-  </si>
-  <si>
-    <t>东京</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>深圳</t>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>钓鱼岛</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>回国</t>
   </si>
   <si>
     <t>江苏</t>
   </si>
   <si>
+    <t>巴萨</t>
+  </si>
+  <si>
+    <t>菏泽</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>华</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>重庆市</t>
-  </si>
-  <si>
-    <t>华</t>
-  </si>
-  <si>
-    <t>新疆</t>
-  </si>
-  <si>
-    <t>回国</t>
-  </si>
-  <si>
-    <t>南</t>
-  </si>
-  <si>
-    <t>陕西</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>巴萨</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>宁夏</t>
-  </si>
-  <si>
-    <t>菏泽</t>
-  </si>
-  <si>
-    <t>钓鱼岛</t>
-  </si>
-  <si>
     <t>越南</t>
   </si>
   <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>天津</t>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t>中美</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>大关</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>德</t>
+  </si>
+  <si>
+    <t>曼联</t>
+  </si>
+  <si>
+    <t>香港特区</t>
+  </si>
+  <si>
+    <t>长江</t>
+  </si>
+  <si>
+    <t>南极</t>
+  </si>
+  <si>
+    <t>祁连山</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>郑州</t>
   </si>
   <si>
     <t>洪荒</t>
   </si>
   <si>
-    <t>中美</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>祁连山</t>
-  </si>
-  <si>
-    <t>海南</t>
-  </si>
-  <si>
-    <t>香港特区</t>
-  </si>
-  <si>
-    <t>大关</t>
-  </si>
-  <si>
-    <t>长江</t>
-  </si>
-  <si>
-    <t>曼联</t>
-  </si>
-  <si>
-    <t>南极</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>湖南省</t>
-  </si>
-  <si>
-    <t>郑州</t>
+    <t>河口</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>旧金山</t>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>加盟</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>祥云</t>
+  </si>
+  <si>
+    <t>甘肃</t>
   </si>
   <si>
     <t>安徽</t>
   </si>
   <si>
-    <t>祥云</t>
+    <t>青岛</t>
   </si>
   <si>
     <t>中</t>
   </si>
   <si>
-    <t>上</t>
-  </si>
-  <si>
     <t>星州</t>
   </si>
   <si>
-    <t>河口</t>
+    <t>大桥</t>
+  </si>
+  <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>远海</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>西班牙</t>
   </si>
   <si>
     <t>智利</t>
   </si>
   <si>
-    <t>东</t>
+    <t>韩美</t>
+  </si>
+  <si>
+    <t>苏宁</t>
+  </si>
+  <si>
+    <t>两国</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>南沙</t>
+  </si>
+  <si>
+    <t>东海</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>吉林</t>
   </si>
   <si>
     <t>河北省</t>
   </si>
   <si>
-    <t>远海</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>大桥</t>
-  </si>
-  <si>
-    <t>旧金山</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>甘肃</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
-    <t>东海</t>
-  </si>
-  <si>
-    <t>韩美</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>两国</t>
-  </si>
-  <si>
-    <t>京东</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>苏宁</t>
-  </si>
-  <si>
-    <t>加盟</t>
-  </si>
-  <si>
-    <t>南沙</t>
-  </si>
-  <si>
     <t>台</t>
   </si>
   <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>青岛</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
+    <t>石家庄市</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>三湖</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>美韩</t>
+  </si>
+  <si>
+    <t>阜宁</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>英国伦敦</t>
+  </si>
+  <si>
+    <t>梅州</t>
+  </si>
+  <si>
+    <t>缅方</t>
+  </si>
+  <si>
+    <t>新鲜</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>天宫</t>
+  </si>
+  <si>
+    <t>依法治国</t>
+  </si>
+  <si>
+    <t>欧</t>
+  </si>
+  <si>
+    <t>俄</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>黑市</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>北美</t>
+  </si>
+  <si>
+    <t>三峡</t>
+  </si>
+  <si>
+    <t>上台</t>
+  </si>
+  <si>
+    <t>阿联酋</t>
+  </si>
+  <si>
+    <t>福岛</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>城镇</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>里斯本</t>
+  </si>
+  <si>
+    <t>银联</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>青瓦台</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>侯国</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
+    <t>青春</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>大国</t>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>克什米尔地区</t>
+  </si>
+  <si>
+    <t>京</t>
+  </si>
+  <si>
+    <t>福利</t>
   </si>
   <si>
     <t>关联</t>
   </si>
   <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>黑市</t>
-  </si>
-  <si>
-    <t>福利</t>
+    <t>龙岩市</t>
+  </si>
+  <si>
+    <t>札幌</t>
+  </si>
+  <si>
+    <t>保家卫国</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>深渊</t>
+  </si>
+  <si>
+    <t>三中</t>
+  </si>
+  <si>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>蒙古国</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>韩流</t>
+  </si>
+  <si>
+    <t>上岗</t>
+  </si>
+  <si>
+    <t>云南省</t>
   </si>
   <si>
     <t>长城</t>
   </si>
   <si>
-    <t>朝</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
+    <t>伊斯兰</t>
+  </si>
+  <si>
+    <t>周边地区</t>
+  </si>
+  <si>
+    <t>西北</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>深海</t>
   </si>
   <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>朝鲜半岛</t>
+    <t>云</t>
+  </si>
+  <si>
+    <t>海沟</t>
+  </si>
+  <si>
+    <t>滁</t>
+  </si>
+  <si>
+    <t>迪拜</t>
   </si>
   <si>
     <t>江夏</t>
   </si>
   <si>
-    <t>里斯本</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>周边地区</t>
-  </si>
-  <si>
-    <t>青春</t>
-  </si>
-  <si>
-    <t>英国伦敦</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>龙岩市</t>
-  </si>
-  <si>
-    <t>迪拜</t>
-  </si>
-  <si>
     <t>浙江省</t>
   </si>
   <si>
-    <t>石家庄市</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>韩流</t>
-  </si>
-  <si>
-    <t>札幌</t>
-  </si>
-  <si>
-    <t>欧</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>俄</t>
-  </si>
-  <si>
-    <t>中山</t>
-  </si>
-  <si>
-    <t>侯国</t>
-  </si>
-  <si>
-    <t>阜宁</t>
-  </si>
-  <si>
-    <t>深渊</t>
-  </si>
-  <si>
-    <t>上岗</t>
-  </si>
-  <si>
-    <t>上台</t>
-  </si>
-  <si>
-    <t>福岛</t>
-  </si>
-  <si>
-    <t>昆明</t>
-  </si>
-  <si>
-    <t>城镇</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>梅州</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>三峡</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>大国</t>
-  </si>
-  <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>东亚</t>
-  </si>
-  <si>
-    <t>新鲜</t>
-  </si>
-  <si>
-    <t>西北</t>
-  </si>
-  <si>
-    <t>青瓦台</t>
-  </si>
-  <si>
-    <t>滁</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>依法治国</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>海沟</t>
-  </si>
-  <si>
-    <t>中华民国</t>
-  </si>
-  <si>
-    <t>保家卫国</t>
-  </si>
-  <si>
-    <t>天宫</t>
-  </si>
-  <si>
-    <t>美韩</t>
-  </si>
-  <si>
-    <t>克什米尔地区</t>
-  </si>
-  <si>
-    <t>北美</t>
-  </si>
-  <si>
-    <t>苏格兰</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>太阳</t>
-  </si>
-  <si>
-    <t>京</t>
-  </si>
-  <si>
-    <t>伊斯兰</t>
-  </si>
-  <si>
-    <t>银联</t>
-  </si>
-  <si>
-    <t>三中</t>
-  </si>
-  <si>
     <t>法国</t>
   </si>
   <si>
-    <t>缅方</t>
-  </si>
-  <si>
-    <t>三湖</t>
-  </si>
-  <si>
-    <t>中欧</t>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>一棵树</t>
+  </si>
+  <si>
+    <t>浦东新区</t>
+  </si>
+  <si>
+    <t>青浦</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>克拉玛依油田</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>中山堂</t>
+  </si>
+  <si>
+    <t>三国</t>
+  </si>
+  <si>
+    <t>朔州市</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>波哥大</t>
+  </si>
+  <si>
+    <t>满街</t>
+  </si>
+  <si>
+    <t>永暑</t>
+  </si>
+  <si>
+    <t>内马尔</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>串联</t>
+  </si>
+  <si>
+    <t>江东</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>北风</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>莎士比亚</t>
+  </si>
+  <si>
+    <t>香港市民</t>
+  </si>
+  <si>
+    <t>庆山</t>
+  </si>
+  <si>
+    <t>沅江</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>新浦</t>
+  </si>
+  <si>
+    <t>三湘</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>中日韩</t>
+  </si>
+  <si>
+    <t>海原县</t>
+  </si>
+  <si>
+    <t>鞍山市</t>
+  </si>
+  <si>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>长大</t>
+  </si>
+  <si>
+    <t>雅加达</t>
+  </si>
+  <si>
+    <t>亚历山大</t>
+  </si>
+  <si>
+    <t>松江</t>
+  </si>
+  <si>
+    <t>平邑县</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>俄国</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>鄱阳湖</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>胶澳</t>
+  </si>
+  <si>
+    <t>花钱买</t>
+  </si>
+  <si>
+    <t>临沂市</t>
+  </si>
+  <si>
+    <t>内斯</t>
+  </si>
+  <si>
+    <t>怒江州</t>
+  </si>
+  <si>
+    <t>闽江</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>珙县</t>
+  </si>
+  <si>
+    <t>广</t>
+  </si>
+  <si>
+    <t>台盟</t>
+  </si>
+  <si>
+    <t>圣地亚哥</t>
+  </si>
+  <si>
+    <t>大都市</t>
+  </si>
+  <si>
+    <t>日内瓦</t>
+  </si>
+  <si>
+    <t>西蒙</t>
+  </si>
+  <si>
+    <t>朝阳镇</t>
+  </si>
+  <si>
+    <t>四国</t>
+  </si>
+  <si>
+    <t>东亚地区</t>
+  </si>
+  <si>
+    <t>梅西</t>
+  </si>
+  <si>
+    <t>巴士</t>
   </si>
   <si>
     <t>伊朗</t>
   </si>
   <si>
-    <t>花钱买</t>
+    <t>衡水市</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>普拉亚</t>
+  </si>
+  <si>
+    <t>东北地区</t>
+  </si>
+  <si>
+    <t>八连</t>
+  </si>
+  <si>
+    <t>阜新</t>
+  </si>
+  <si>
+    <t>惠及</t>
+  </si>
+  <si>
+    <t>印度洋</t>
+  </si>
+  <si>
+    <t>休斯敦</t>
+  </si>
+  <si>
+    <t>中俄</t>
+  </si>
+  <si>
+    <t>哥哥</t>
+  </si>
+  <si>
+    <t>独流镇</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>愛</t>
+  </si>
+  <si>
+    <t>赣州</t>
+  </si>
+  <si>
+    <t>威海</t>
+  </si>
+  <si>
+    <t>象牙</t>
+  </si>
+  <si>
+    <t>中梅西</t>
+  </si>
+  <si>
+    <t>罗兴亚</t>
+  </si>
+  <si>
+    <t>宜宾市</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>扬善</t>
+  </si>
+  <si>
+    <t>澳越</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>墨尔本</t>
+  </si>
+  <si>
+    <t>维港</t>
+  </si>
+  <si>
+    <t>西长安街</t>
+  </si>
+  <si>
+    <t>普及</t>
+  </si>
+  <si>
+    <t>大海</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>福原</t>
+  </si>
+  <si>
+    <t>通州</t>
+  </si>
+  <si>
+    <t>通辽市</t>
+  </si>
+  <si>
+    <t>蓝海</t>
+  </si>
+  <si>
+    <t>欧元区</t>
+  </si>
+  <si>
+    <t>菲共</t>
+  </si>
+  <si>
+    <t>延华</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>北京天安门广场</t>
+  </si>
+  <si>
+    <t>长寿</t>
+  </si>
+  <si>
+    <t>石景山区</t>
+  </si>
+  <si>
+    <t>辽阳市</t>
+  </si>
+  <si>
+    <t>澳门特别行政区</t>
+  </si>
+  <si>
+    <t>南北</t>
+  </si>
+  <si>
+    <t>黄兴国</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>沧桑</t>
+  </si>
+  <si>
+    <t>中超联赛</t>
+  </si>
+  <si>
+    <t>三河</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>涉港</t>
+  </si>
+  <si>
+    <t>驻俄</t>
+  </si>
+  <si>
+    <t>丽江市</t>
+  </si>
+  <si>
+    <t>汉普敦</t>
+  </si>
+  <si>
+    <t>俄美</t>
+  </si>
+  <si>
+    <t>济州岛</t>
+  </si>
+  <si>
+    <t>罗马帝国</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>法治化</t>
+  </si>
+  <si>
+    <t>朝来</t>
+  </si>
+  <si>
+    <t>梅地亚</t>
+  </si>
+  <si>
+    <t>台海</t>
+  </si>
+  <si>
+    <t>桃园市</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>石嘴山</t>
+  </si>
+  <si>
+    <t>咸镜南道</t>
+  </si>
+  <si>
+    <t>马国</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>长春市</t>
+  </si>
+  <si>
+    <t>中蒙</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>江河</t>
+  </si>
+  <si>
+    <t>冲绳岛</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>日西</t>
+  </si>
+  <si>
+    <t>潮州</t>
+  </si>
+  <si>
+    <t>广厦</t>
+  </si>
+  <si>
+    <t>内湖</t>
+  </si>
+  <si>
+    <t>摩拜</t>
+  </si>
+  <si>
+    <t>蜀中</t>
   </si>
   <si>
     <t>澳</t>
   </si>
   <si>
-    <t>夏威夷州</t>
+    <t>牡丹江市</t>
+  </si>
+  <si>
+    <t>欧美</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>埃</t>
+  </si>
+  <si>
+    <t>枞树</t>
+  </si>
+  <si>
+    <t>拜拜</t>
+  </si>
+  <si>
+    <t>滑坡</t>
+  </si>
+  <si>
+    <t>肇庆</t>
+  </si>
+  <si>
+    <t>华夏</t>
+  </si>
+  <si>
+    <t>朔城区</t>
+  </si>
+  <si>
+    <t>中甲</t>
+  </si>
+  <si>
+    <t>台湾省</t>
+  </si>
+  <si>
+    <t>乌山</t>
+  </si>
+  <si>
+    <t>驻港</t>
+  </si>
+  <si>
+    <t>台湾岛</t>
+  </si>
+  <si>
+    <t>海峡</t>
+  </si>
+  <si>
+    <t>印巴</t>
+  </si>
+  <si>
+    <t>漳平</t>
+  </si>
+  <si>
+    <t>台州市</t>
+  </si>
+  <si>
+    <t>中巴</t>
+  </si>
+  <si>
+    <t>西昌</t>
+  </si>
+  <si>
+    <t>三本</t>
+  </si>
+  <si>
+    <t>六便士</t>
+  </si>
+  <si>
+    <t>太阳穴</t>
+  </si>
+  <si>
+    <t>台湾海峡</t>
+  </si>
+  <si>
+    <t>衡水</t>
+  </si>
+  <si>
+    <t>台东县</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>南京市</t>
+  </si>
+  <si>
+    <t>福田</t>
+  </si>
+  <si>
+    <t>桃园</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>杭南</t>
+  </si>
+  <si>
+    <t>浙大</t>
+  </si>
+  <si>
+    <t>南路</t>
+  </si>
+  <si>
+    <t>阜城县</t>
+  </si>
+  <si>
+    <t>内华达</t>
+  </si>
+  <si>
+    <t>灵宝市</t>
+  </si>
+  <si>
+    <t>河村</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>南昌市</t>
+  </si>
+  <si>
+    <t>中美合作</t>
+  </si>
+  <si>
+    <t>哈尔滨市</t>
+  </si>
+  <si>
+    <t>满屋</t>
+  </si>
+  <si>
+    <t>大中华区</t>
+  </si>
+  <si>
+    <t>华盛顿</t>
+  </si>
+  <si>
+    <t>屏东</t>
+  </si>
+  <si>
+    <t>北京中山公园</t>
+  </si>
+  <si>
+    <t>罗兰</t>
+  </si>
+  <si>
+    <t>沙俄</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>厦大</t>
+  </si>
+  <si>
+    <t>波顿</t>
+  </si>
+  <si>
+    <t>连云港市</t>
+  </si>
+  <si>
+    <t>汨罗</t>
+  </si>
+  <si>
+    <t>湘西</t>
+  </si>
+  <si>
+    <t>白洋淀</t>
+  </si>
+  <si>
+    <t>盘锦市</t>
+  </si>
+  <si>
+    <t>惠港</t>
+  </si>
+  <si>
+    <t>淄博市</t>
+  </si>
+  <si>
+    <t>邢台</t>
+  </si>
+  <si>
+    <t>廊坊</t>
+  </si>
+  <si>
+    <t>大港</t>
+  </si>
+  <si>
+    <t>阿里山</t>
+  </si>
+  <si>
+    <t>吉林省延边朝鲜族自治州</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>大明湖</t>
+  </si>
+  <si>
+    <t>许昌市</t>
+  </si>
+  <si>
+    <t>北约</t>
+  </si>
+  <si>
+    <t>日本海</t>
+  </si>
+  <si>
+    <t>缅怀</t>
+  </si>
+  <si>
+    <t>瑞华</t>
+  </si>
+  <si>
+    <t>瓯海区</t>
+  </si>
+  <si>
+    <t>美台</t>
+  </si>
+  <si>
+    <t>泸水</t>
+  </si>
+  <si>
+    <t>离岛</t>
+  </si>
+  <si>
+    <t>摩加迪沙</t>
+  </si>
+  <si>
+    <t>潍坊</t>
+  </si>
+  <si>
+    <t>泰</t>
+  </si>
+  <si>
+    <t>台次</t>
+  </si>
+  <si>
+    <t>东湖</t>
+  </si>
+  <si>
+    <t>地中海</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>美东</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>长岛</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>青岛港</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>息县</t>
+  </si>
+  <si>
+    <t>芬格</t>
+  </si>
+  <si>
+    <t>嘉定</t>
+  </si>
+  <si>
+    <t>中亚地区</t>
+  </si>
+  <si>
+    <t>亚洲区</t>
+  </si>
+  <si>
+    <t>奎屯市</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>丹丹</t>
+  </si>
+  <si>
+    <t>白山市</t>
+  </si>
+  <si>
+    <t>德阳</t>
+  </si>
+  <si>
+    <t>海淀区</t>
+  </si>
+  <si>
+    <t>英藏</t>
+  </si>
+  <si>
+    <t>塞</t>
+  </si>
+  <si>
+    <t>嘉宾</t>
+  </si>
+  <si>
+    <t>德昌</t>
+  </si>
+  <si>
+    <t>高黎贡山</t>
+  </si>
+  <si>
+    <t>路西</t>
+  </si>
+  <si>
+    <t>丹东</t>
+  </si>
+  <si>
+    <t>海港</t>
+  </si>
+  <si>
+    <t>沙市</t>
+  </si>
+  <si>
+    <t>深市</t>
+  </si>
+  <si>
+    <t>辉南县</t>
+  </si>
+  <si>
+    <t>远洋</t>
+  </si>
+  <si>
+    <t>白俄</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>百联</t>
+  </si>
+  <si>
+    <t>绵阳</t>
+  </si>
+  <si>
+    <t>友谊关</t>
+  </si>
+  <si>
+    <t>大省</t>
+  </si>
+  <si>
+    <t>深港</t>
+  </si>
+  <si>
+    <t>邵阳市</t>
+  </si>
+  <si>
+    <t>中关村</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>阿利</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>铜陵市</t>
+  </si>
+  <si>
+    <t>上山</t>
+  </si>
+  <si>
+    <t>温州市</t>
+  </si>
+  <si>
+    <t>天安门广场</t>
+  </si>
+  <si>
+    <t>朝外</t>
+  </si>
+  <si>
+    <t>平南县</t>
+  </si>
+  <si>
+    <t>吉他</t>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+  </si>
+  <si>
+    <t>佛罗里达</t>
+  </si>
+  <si>
+    <t>枫桥镇</t>
+  </si>
+  <si>
+    <t>太仓</t>
   </si>
   <si>
     <t>上港</t>
   </si>
   <si>
-    <t>白俄</t>
-  </si>
-  <si>
-    <t>沧桑</t>
-  </si>
-  <si>
-    <t>扬州</t>
-  </si>
-  <si>
-    <t>休斯敦</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>绵阳</t>
+    <t>北京地区</t>
+  </si>
+  <si>
+    <t>尼</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>苏棣</t>
+  </si>
+  <si>
+    <t>渤海海峡</t>
+  </si>
+  <si>
+    <t>喀布尔</t>
+  </si>
+  <si>
+    <t>治本</t>
+  </si>
+  <si>
+    <t>西子湖畔</t>
+  </si>
+  <si>
+    <t>阿尼古</t>
+  </si>
+  <si>
+    <t>景德镇市</t>
+  </si>
+  <si>
+    <t>河津</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>九江</t>
+  </si>
+  <si>
+    <t>伊犁</t>
+  </si>
+  <si>
+    <t>阿兰</t>
+  </si>
+  <si>
+    <t>建国</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>百色市</t>
+  </si>
+  <si>
+    <t>维多利亚州</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>西太平洋</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>开县</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>湾区</t>
+  </si>
+  <si>
+    <t>阿尔及尔</t>
+  </si>
+  <si>
+    <t>福沙</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>株洲</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>延边</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>甘群</t>
+  </si>
+  <si>
+    <t>南太平洋</t>
+  </si>
+  <si>
+    <t>天津港</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>美朝</t>
+  </si>
+  <si>
+    <t>大连市</t>
+  </si>
+  <si>
+    <t>卡门</t>
   </si>
   <si>
     <t>福</t>
   </si>
   <si>
-    <t>大连市</t>
-  </si>
-  <si>
-    <t>泸水</t>
-  </si>
-  <si>
-    <t>海港</t>
-  </si>
-  <si>
-    <t>深港</t>
-  </si>
-  <si>
-    <t>闽江</t>
-  </si>
-  <si>
     <t>南湖</t>
   </si>
   <si>
+    <t>中卫</t>
+  </si>
+  <si>
+    <t>津轻海峡</t>
+  </si>
+  <si>
+    <t>台风</t>
+  </si>
+  <si>
+    <t>吉首市</t>
+  </si>
+  <si>
+    <t>株洲市</t>
+  </si>
+  <si>
+    <t>罗马</t>
+  </si>
+  <si>
+    <t>中兴</t>
+  </si>
+  <si>
+    <t>东池</t>
+  </si>
+  <si>
+    <t>珍珠港</t>
+  </si>
+  <si>
+    <t>远东</t>
+  </si>
+  <si>
+    <t>南开区</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>南宁市</t>
+  </si>
+  <si>
+    <t>上坡路</t>
+  </si>
+  <si>
+    <t>四梁</t>
+  </si>
+  <si>
     <t>朝阳区</t>
   </si>
   <si>
-    <t>蜀中</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>许昌市</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>南太平洋</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>辉南县</t>
-  </si>
-  <si>
-    <t>苏联</t>
-  </si>
-  <si>
-    <t>中亚地区</t>
-  </si>
-  <si>
-    <t>枞树</t>
-  </si>
-  <si>
-    <t>天安门广场</t>
+    <t>长滩</t>
   </si>
   <si>
     <t>长滨</t>
   </si>
   <si>
-    <t>美朝</t>
-  </si>
-  <si>
-    <t>枫桥镇</t>
-  </si>
-  <si>
-    <t>冲绳岛</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
-    <t>台次</t>
-  </si>
-  <si>
-    <t>墨尔本</t>
-  </si>
-  <si>
-    <t>佛罗里达</t>
-  </si>
-  <si>
-    <t>邢台</t>
-  </si>
-  <si>
-    <t>西昌</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>菲共</t>
+    <t>西站</t>
+  </si>
+  <si>
+    <t>翼龙</t>
+  </si>
+  <si>
+    <t>中断</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>广元市</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>漳平市</t>
+  </si>
+  <si>
+    <t>大洲</t>
+  </si>
+  <si>
+    <t>台联</t>
+  </si>
+  <si>
+    <t>西藏地方</t>
+  </si>
+  <si>
+    <t>阿拉善盟</t>
+  </si>
+  <si>
+    <t>中心列</t>
+  </si>
+  <si>
+    <t>亚的斯亚贝巴</t>
+  </si>
+  <si>
+    <t>恰尔</t>
+  </si>
+  <si>
+    <t>贵州</t>
   </si>
   <si>
     <t>墨西哥</t>
   </si>
   <si>
-    <t>湘西</t>
-  </si>
-  <si>
-    <t>海峡</t>
-  </si>
-  <si>
     <t>大洋</t>
   </si>
   <si>
-    <t>中心列</t>
-  </si>
-  <si>
-    <t>牡丹江市</t>
-  </si>
-  <si>
-    <t>嘉定</t>
-  </si>
-  <si>
-    <t>南宁</t>
-  </si>
-  <si>
-    <t>吉林省延边朝鲜族自治州</t>
-  </si>
-  <si>
-    <t>白洋淀</t>
-  </si>
-  <si>
-    <t>南京市</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
-  </si>
-  <si>
-    <t>株洲</t>
-  </si>
-  <si>
-    <t>梅地亚</t>
-  </si>
-  <si>
-    <t>沙俄</t>
-  </si>
-  <si>
-    <t>阿尔及尔</t>
-  </si>
-  <si>
-    <t>青海</t>
-  </si>
-  <si>
-    <t>四国</t>
-  </si>
-  <si>
-    <t>朝外</t>
-  </si>
-  <si>
-    <t>长寿</t>
-  </si>
-  <si>
-    <t>梅西</t>
-  </si>
-  <si>
-    <t>青岛港</t>
-  </si>
-  <si>
-    <t>西子湖畔</t>
-  </si>
-  <si>
-    <t>丹丹</t>
-  </si>
-  <si>
-    <t>湖</t>
-  </si>
-  <si>
-    <t>渤海海峡</t>
-  </si>
-  <si>
-    <t>西站</t>
-  </si>
-  <si>
-    <t>蓝海</t>
-  </si>
-  <si>
-    <t>台州市</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>尼</t>
-  </si>
-  <si>
-    <t>湛江</t>
-  </si>
-  <si>
-    <t>漳平</t>
-  </si>
-  <si>
-    <t>上坡路</t>
-  </si>
-  <si>
-    <t>香水</t>
-  </si>
-  <si>
-    <t>南昌市</t>
-  </si>
-  <si>
-    <t>大港</t>
-  </si>
-  <si>
-    <t>南开区</t>
-  </si>
-  <si>
-    <t>乌鲁木齐</t>
+    <t>诸暨市</t>
+  </si>
+  <si>
+    <t>七台河市</t>
+  </si>
+  <si>
+    <t>越野</t>
+  </si>
+  <si>
+    <t>四海</t>
+  </si>
+  <si>
+    <t>南通市</t>
+  </si>
+  <si>
+    <t>驻马</t>
+  </si>
+  <si>
+    <t>湄公河</t>
   </si>
   <si>
     <t>韩三国</t>
   </si>
   <si>
-    <t>内斯</t>
-  </si>
-  <si>
-    <t>阿利</t>
-  </si>
-  <si>
-    <t>卡门</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>克拉玛依油田</t>
-  </si>
-  <si>
-    <t>松江</t>
-  </si>
-  <si>
-    <t>北京地区</t>
-  </si>
-  <si>
-    <t>长大</t>
-  </si>
-  <si>
-    <t>太仓</t>
-  </si>
-  <si>
-    <t>美东</t>
-  </si>
-  <si>
-    <t>缅怀</t>
-  </si>
-  <si>
-    <t>台湾省</t>
-  </si>
-  <si>
-    <t>河津</t>
-  </si>
-  <si>
-    <t>湾区</t>
-  </si>
-  <si>
-    <t>沅江</t>
-  </si>
-  <si>
-    <t>九江</t>
-  </si>
-  <si>
-    <t>百色市</t>
-  </si>
-  <si>
-    <t>丹东</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>大洲</t>
-  </si>
-  <si>
-    <t>伊犁</t>
-  </si>
-  <si>
-    <t>香港市民</t>
-  </si>
-  <si>
-    <t>摩加迪沙</t>
-  </si>
-  <si>
-    <t>海原县</t>
-  </si>
-  <si>
-    <t>江东</t>
-  </si>
-  <si>
-    <t>欧元区</t>
-  </si>
-  <si>
-    <t>华夏</t>
-  </si>
-  <si>
-    <t>中梅西</t>
-  </si>
-  <si>
-    <t>灵宝市</t>
-  </si>
-  <si>
-    <t>印度洋</t>
-  </si>
-  <si>
-    <t>吉他</t>
-  </si>
-  <si>
-    <t>普拉亚</t>
-  </si>
-  <si>
-    <t>治本</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>滑坡</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>太阳穴</t>
-  </si>
-  <si>
-    <t>澳越</t>
-  </si>
-  <si>
-    <t>株洲市</t>
-  </si>
-  <si>
-    <t>哈尔滨</t>
-  </si>
-  <si>
-    <t>澳门特别行政区</t>
-  </si>
-  <si>
-    <t>中蒙</t>
-  </si>
-  <si>
-    <t>深市</t>
-  </si>
-  <si>
-    <t>丽江市</t>
-  </si>
-  <si>
-    <t>铜陵市</t>
-  </si>
-  <si>
-    <t>鞍山市</t>
-  </si>
-  <si>
-    <t>石嘴山</t>
-  </si>
-  <si>
-    <t>景德镇市</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>南北</t>
-  </si>
-  <si>
-    <t>中断</t>
-  </si>
-  <si>
-    <t>威海</t>
-  </si>
-  <si>
-    <t>西藏地方</t>
-  </si>
-  <si>
-    <t>奎屯市</t>
-  </si>
-  <si>
-    <t>庆山</t>
-  </si>
-  <si>
-    <t>马国</t>
-  </si>
-  <si>
-    <t>南通市</t>
-  </si>
-  <si>
-    <t>英藏</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>衡水</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>南宁市</t>
-  </si>
-  <si>
-    <t>四海</t>
-  </si>
-  <si>
-    <t>福原</t>
-  </si>
-  <si>
-    <t>苏棣</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t>芬格</t>
-  </si>
-  <si>
-    <t>朝阳镇</t>
-  </si>
-  <si>
-    <t>鄱阳湖</t>
-  </si>
-  <si>
-    <t>常州</t>
-  </si>
-  <si>
-    <t>阜城县</t>
-  </si>
-  <si>
-    <t>南路</t>
-  </si>
-  <si>
-    <t>乌山</t>
-  </si>
-  <si>
-    <t>河村</t>
-  </si>
-  <si>
-    <t>阿兰</t>
-  </si>
-  <si>
-    <t>高雄市</t>
-  </si>
-  <si>
-    <t>济州岛</t>
-  </si>
-  <si>
-    <t>浙大</t>
-  </si>
-  <si>
-    <t>罗兰</t>
-  </si>
-  <si>
-    <t>长春市</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>扬善</t>
-  </si>
-  <si>
-    <t>北约</t>
-  </si>
-  <si>
-    <t>维多利亚州</t>
-  </si>
-  <si>
-    <t>地中海</t>
-  </si>
-  <si>
-    <t>中俄</t>
-  </si>
-  <si>
-    <t>中甲</t>
-  </si>
-  <si>
-    <t>巴士</t>
-  </si>
-  <si>
-    <t>内湖</t>
-  </si>
-  <si>
-    <t>三湘</t>
-  </si>
-  <si>
-    <t>沙市</t>
-  </si>
-  <si>
-    <t>大都市</t>
-  </si>
-  <si>
-    <t>摩拜</t>
-  </si>
-  <si>
-    <t>嘉宾</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>惠港</t>
-  </si>
-  <si>
-    <t>潮州</t>
-  </si>
-  <si>
-    <t>天津港</t>
-  </si>
-  <si>
-    <t>华盛顿</t>
-  </si>
-  <si>
-    <t>维港</t>
-  </si>
-  <si>
-    <t>罗马帝国</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>四梁</t>
-  </si>
-  <si>
-    <t>阜新</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>浦东新区</t>
-  </si>
-  <si>
-    <t>六便士</t>
-  </si>
-  <si>
-    <t>怒江州</t>
-  </si>
-  <si>
-    <t>友谊关</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>德昌</t>
-  </si>
-  <si>
-    <t>一棵树</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>延华</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>大中华区</t>
-  </si>
-  <si>
-    <t>甘群</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
-    <t>台盟</t>
-  </si>
-  <si>
-    <t>朔城区</t>
-  </si>
-  <si>
-    <t>中超联赛</t>
-  </si>
-  <si>
-    <t>中巴</t>
-  </si>
-  <si>
-    <t>台海</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>西长安街</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>漳平市</t>
+    <t>福田区</t>
   </si>
   <si>
     <t>湖北省</t>
   </si>
   <si>
-    <t>惠州</t>
-  </si>
-  <si>
-    <t>中卫</t>
-  </si>
-  <si>
-    <t>长岛</t>
-  </si>
-  <si>
-    <t>衡水市</t>
-  </si>
-  <si>
-    <t>印巴</t>
-  </si>
-  <si>
-    <t>胶澳</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>亚历山大</t>
-  </si>
-  <si>
-    <t>通辽市</t>
-  </si>
-  <si>
-    <t>汉普敦</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>象牙</t>
-  </si>
-  <si>
-    <t>串联</t>
-  </si>
-  <si>
-    <t>驻俄</t>
-  </si>
-  <si>
-    <t>波哥大</t>
-  </si>
-  <si>
-    <t>涉港</t>
-  </si>
-  <si>
-    <t>离岛</t>
-  </si>
-  <si>
-    <t>桃园市</t>
-  </si>
-  <si>
-    <t>珙县</t>
-  </si>
-  <si>
-    <t>朝来</t>
-  </si>
-  <si>
-    <t>东池</t>
-  </si>
-  <si>
-    <t>连云港市</t>
-  </si>
-  <si>
-    <t>贵州</t>
-  </si>
-  <si>
-    <t>俄美</t>
+    <t>辽源市</t>
   </si>
   <si>
     <t>赤水河</t>
-  </si>
-  <si>
-    <t>厦大</t>
-  </si>
-  <si>
-    <t>中关村</t>
-  </si>
-  <si>
-    <t>湄公河</t>
-  </si>
-  <si>
-    <t>福田</t>
-  </si>
-  <si>
-    <t>黄兴国</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>西蒙</t>
-  </si>
-  <si>
-    <t>愛</t>
-  </si>
-  <si>
-    <t>阿拉善盟</t>
-  </si>
-  <si>
-    <t>辽阳市</t>
-  </si>
-  <si>
-    <t>杭南</t>
-  </si>
-  <si>
-    <t>赣州</t>
-  </si>
-  <si>
-    <t>汨罗</t>
-  </si>
-  <si>
-    <t>阿里山</t>
-  </si>
-  <si>
-    <t>惠及</t>
-  </si>
-  <si>
-    <t>台风</t>
-  </si>
-  <si>
-    <t>淄博市</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>津轻海峡</t>
-  </si>
-  <si>
-    <t>莎士比亚</t>
-  </si>
-  <si>
-    <t>平南县</t>
-  </si>
-  <si>
-    <t>远洋</t>
-  </si>
-  <si>
-    <t>路西</t>
-  </si>
-  <si>
-    <t>恰尔</t>
-  </si>
-  <si>
-    <t>越野</t>
-  </si>
-  <si>
-    <t>台湾海峡</t>
-  </si>
-  <si>
-    <t>长滩</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>埃</t>
-  </si>
-  <si>
-    <t>白山市</t>
-  </si>
-  <si>
-    <t>驻港</t>
-  </si>
-  <si>
-    <t>海南省</t>
-  </si>
-  <si>
-    <t>珍珠港</t>
-  </si>
-  <si>
-    <t>盘锦市</t>
-  </si>
-  <si>
-    <t>罗马</t>
-  </si>
-  <si>
-    <t>中日韩</t>
-  </si>
-  <si>
-    <t>大海</t>
-  </si>
-  <si>
-    <t>满屋</t>
-  </si>
-  <si>
-    <t>建国</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>关岛</t>
-  </si>
-  <si>
-    <t>西欧</t>
-  </si>
-  <si>
-    <t>吉首市</t>
-  </si>
-  <si>
-    <t>温州市</t>
-  </si>
-  <si>
-    <t>翼龙</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>屏东</t>
-  </si>
-  <si>
-    <t>台湾岛</t>
-  </si>
-  <si>
-    <t>亚的斯亚贝巴</t>
-  </si>
-  <si>
-    <t>肇庆</t>
-  </si>
-  <si>
-    <t>新浦</t>
-  </si>
-  <si>
-    <t>亚洲区</t>
-  </si>
-  <si>
-    <t>贵阳</t>
-  </si>
-  <si>
-    <t>美台</t>
-  </si>
-  <si>
-    <t>三本</t>
-  </si>
-  <si>
-    <t>咸镜南道</t>
-  </si>
-  <si>
-    <t>息县</t>
-  </si>
-  <si>
-    <t>内华达</t>
-  </si>
-  <si>
-    <t>北京天安门广场</t>
-  </si>
-  <si>
-    <t>青浦</t>
-  </si>
-  <si>
-    <t>上山</t>
-  </si>
-  <si>
-    <t>福田区</t>
-  </si>
-  <si>
-    <t>塞</t>
-  </si>
-  <si>
-    <t>德阳</t>
-  </si>
-  <si>
-    <t>中山堂</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>三河</t>
-  </si>
-  <si>
-    <t>圣地亚哥</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>廊坊</t>
-  </si>
-  <si>
-    <t>台联</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>永暑</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>东亚地区</t>
-  </si>
-  <si>
-    <t>山西省</t>
-  </si>
-  <si>
-    <t>宜宾市</t>
-  </si>
-  <si>
-    <t>满街</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>福沙</t>
-  </si>
-  <si>
-    <t>潍坊</t>
-  </si>
-  <si>
-    <t>日本海</t>
-  </si>
-  <si>
-    <t>邵阳市</t>
-  </si>
-  <si>
-    <t>通州</t>
-  </si>
-  <si>
-    <t>广</t>
-  </si>
-  <si>
-    <t>驻马</t>
-  </si>
-  <si>
-    <t>那不勒斯</t>
-  </si>
-  <si>
-    <t>广厦</t>
-  </si>
-  <si>
-    <t>江河</t>
-  </si>
-  <si>
-    <t>朔州市</t>
-  </si>
-  <si>
-    <t>大省</t>
-  </si>
-  <si>
-    <t>俄国</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-  <si>
-    <t>桃园</t>
-  </si>
-  <si>
-    <t>法治化</t>
-  </si>
-  <si>
-    <t>百联</t>
-  </si>
-  <si>
-    <t>哥哥</t>
-  </si>
-  <si>
-    <t>日西</t>
-  </si>
-  <si>
-    <t>三亚</t>
-  </si>
-  <si>
-    <t>台北市</t>
-  </si>
-  <si>
-    <t>哈尔滨市</t>
-  </si>
-  <si>
-    <t>平邑县</t>
-  </si>
-  <si>
-    <t>辽源市</t>
-  </si>
-  <si>
-    <t>日内瓦</t>
-  </si>
-  <si>
-    <t>喀布尔</t>
-  </si>
-  <si>
-    <t>阿尼古</t>
-  </si>
-  <si>
-    <t>西藏</t>
-  </si>
-  <si>
-    <t>七台河市</t>
-  </si>
-  <si>
-    <t>北京中山公园</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>广元市</t>
-  </si>
-  <si>
-    <t>中兴</t>
-  </si>
-  <si>
-    <t>拜拜</t>
-  </si>
-  <si>
-    <t>东北地区</t>
-  </si>
-  <si>
-    <t>高黎贡山</t>
-  </si>
-  <si>
-    <t>瓯海区</t>
-  </si>
-  <si>
-    <t>石景山区</t>
-  </si>
-  <si>
-    <t>瑞华</t>
-  </si>
-  <si>
-    <t>内马尔</t>
-  </si>
-  <si>
-    <t>西太平洋</t>
-  </si>
-  <si>
-    <t>海淀区</t>
-  </si>
-  <si>
-    <t>三国</t>
-  </si>
-  <si>
-    <t>罗兴亚</t>
-  </si>
-  <si>
-    <t>八连</t>
-  </si>
-  <si>
-    <t>中美合作</t>
-  </si>
-  <si>
-    <t>雅加达</t>
-  </si>
-  <si>
-    <t>独流镇</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>东湖</t>
-  </si>
-  <si>
-    <t>波顿</t>
-  </si>
-  <si>
-    <t>普及</t>
-  </si>
-  <si>
-    <t>远东</t>
-  </si>
-  <si>
-    <t>大明湖</t>
-  </si>
-  <si>
-    <t>台东县</t>
-  </si>
-  <si>
-    <t>欧美</t>
-  </si>
-  <si>
-    <t>延边</t>
-  </si>
-  <si>
-    <t>诸暨市</t>
-  </si>
-  <si>
-    <t>泰</t>
-  </si>
-  <si>
-    <t>开县</t>
-  </si>
-  <si>
-    <t>北风</t>
   </si>
 </sst>
 </file>

--- a/src/out/好书共享.xlsx
+++ b/src/out/好书共享.xlsx
@@ -24,442 +24,442 @@
     <t>活跃量</t>
   </si>
   <si>
-    <t>00点</t>
-  </si>
-  <si>
-    <t>01点</t>
-  </si>
-  <si>
-    <t>02点</t>
-  </si>
-  <si>
-    <t>03点</t>
-  </si>
-  <si>
-    <t>04点</t>
-  </si>
-  <si>
-    <t>05点</t>
-  </si>
-  <si>
-    <t>06点</t>
-  </si>
-  <si>
-    <t>07点</t>
-  </si>
-  <si>
-    <t>08点</t>
-  </si>
-  <si>
-    <t>09点</t>
-  </si>
-  <si>
-    <t>10点</t>
-  </si>
-  <si>
-    <t>11点</t>
-  </si>
-  <si>
-    <t>12点</t>
-  </si>
-  <si>
-    <t>13点</t>
-  </si>
-  <si>
-    <t>14点</t>
-  </si>
-  <si>
-    <t>15点</t>
-  </si>
-  <si>
-    <t>16点</t>
-  </si>
-  <si>
-    <t>17点</t>
-  </si>
-  <si>
-    <t>18点</t>
-  </si>
-  <si>
-    <t>19点</t>
-  </si>
-  <si>
-    <t>20点</t>
-  </si>
-  <si>
-    <t>21点</t>
-  </si>
-  <si>
-    <t>22点</t>
-  </si>
-  <si>
-    <t>23点</t>
+    <t>00h</t>
+  </si>
+  <si>
+    <t>01h</t>
+  </si>
+  <si>
+    <t>02h</t>
+  </si>
+  <si>
+    <t>03h</t>
+  </si>
+  <si>
+    <t>04h</t>
+  </si>
+  <si>
+    <t>05h</t>
+  </si>
+  <si>
+    <t>06h</t>
+  </si>
+  <si>
+    <t>07h</t>
+  </si>
+  <si>
+    <t>08h</t>
+  </si>
+  <si>
+    <t>09h</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>21h</t>
+  </si>
+  <si>
+    <t>22h</t>
+  </si>
+  <si>
+    <t>23h</t>
   </si>
   <si>
     <t>成员</t>
   </si>
   <si>
-    <t>云南~凉声(2083686645)</t>
-  </si>
-  <si>
-    <t>武汉 孤独是我(690511572)</t>
-  </si>
-  <si>
-    <t>湖北 琳儿(875483801)</t>
-  </si>
-  <si>
-    <t>武汉，陈政(1427270056)</t>
-  </si>
-  <si>
-    <t>华师-沐沐(451367682)</t>
-  </si>
-  <si>
-    <t>云南  马威(1812549176)</t>
-  </si>
-  <si>
-    <t>石家庄  又年(2209053097)</t>
-  </si>
-  <si>
-    <t>武汉 郑念琴(1018611007)</t>
-  </si>
-  <si>
-    <t>武汉  明珠(2814869857)</t>
-  </si>
-  <si>
-    <t>内蒙古-卢宇(1145522803)</t>
-  </si>
-  <si>
-    <t>广西  宁(1951618519)</t>
-  </si>
-  <si>
-    <t>2083686645(2083686645)</t>
-  </si>
-  <si>
-    <t>系统消息(10000)</t>
-  </si>
-  <si>
-    <t>山东菏泽~暖暖(2447846558)</t>
-  </si>
-  <si>
-    <t>四川whisky(1520102978)</t>
-  </si>
-  <si>
-    <t>山东~暖暖(2447846558)</t>
-  </si>
-  <si>
-    <t>山东菏泽~Forget°淡忘(2447846558)</t>
-  </si>
-  <si>
-    <t>山东~Double(2447846558)</t>
-  </si>
-  <si>
-    <t>875483801(875483801)</t>
-  </si>
-  <si>
-    <t>🎶 ～听雨轩  ．(1808623748)</t>
-  </si>
-  <si>
-    <t>740478155(740478155)</t>
-  </si>
-  <si>
-    <t>河南 文明(740478155)</t>
-  </si>
-  <si>
-    <t>重庆，宸宸(641031655)</t>
-  </si>
-  <si>
-    <t>371558097(371558097)</t>
-  </si>
-  <si>
-    <t>西安+无念(2063380644)</t>
-  </si>
-  <si>
-    <t>(2083686645)</t>
-  </si>
-  <si>
-    <t>(1951618519)</t>
-  </si>
-  <si>
-    <t>(1427270056)</t>
-  </si>
-  <si>
-    <t>毛衣和衬衫(1511868393)</t>
-  </si>
-  <si>
-    <t>武汉的同学(1850923342)</t>
-  </si>
-  <si>
-    <t>云南     Angle   微笑(497232985)</t>
-  </si>
-  <si>
-    <t>武汉_彭美辰(791865372)</t>
-  </si>
-  <si>
-    <t>武汉--煮的(1063168952)</t>
-  </si>
-  <si>
-    <t>1018611007(1018611007)</t>
-  </si>
-  <si>
-    <t>曼曼(596765682)</t>
-  </si>
-  <si>
-    <t>财政～1601吴一波(690511572)</t>
-  </si>
-  <si>
-    <t>武汉～孤独是我(690511572)</t>
-  </si>
-  <si>
-    <t>2814869857(2814869857)</t>
-  </si>
-  <si>
-    <t>湖北 望山(1124847169)</t>
-  </si>
-  <si>
-    <t>云南   谭巧(635250290)</t>
-  </si>
-  <si>
-    <t>1427270056(1427270056)</t>
-  </si>
-  <si>
-    <t>乾 ﹠魂·不吝(2510377152)</t>
-  </si>
-  <si>
-    <t>(2447846558)</t>
-  </si>
-  <si>
-    <t>493650969(493650969)</t>
-  </si>
-  <si>
-    <t>1850923342(1850923342)</t>
-  </si>
-  <si>
-    <t>湖北—根叔(993448170)</t>
-  </si>
-  <si>
-    <t>昭通-马威心理分析(1812549176)</t>
-  </si>
-  <si>
-    <t>(2503036233)</t>
-  </si>
-  <si>
-    <t>地球上     瑟瑟&lt;gggggggggggggggg_9@163.com&gt;</t>
-  </si>
-  <si>
-    <t>1951618519(1951618519)</t>
-  </si>
-  <si>
-    <t>云南       小飞(1491240639)</t>
-  </si>
-  <si>
-    <t>993448170(993448170)</t>
-  </si>
-  <si>
-    <t>甘肃  仓鼠(329834712)</t>
-  </si>
-  <si>
-    <t>武汉  晨(1773663797)</t>
-  </si>
-  <si>
-    <t>小天(3485476971)</t>
-  </si>
-  <si>
-    <t>武汉 古月照今尘(2510377152)</t>
-  </si>
-  <si>
-    <t>(2475038603)</t>
-  </si>
-  <si>
-    <t>武汉一静穆时光(99327213)</t>
-  </si>
-  <si>
-    <t>1440449040(1440449040)</t>
-  </si>
-  <si>
-    <t>微微一笑(2971344137)</t>
-  </si>
-  <si>
-    <t>微微一笑(3530718317)</t>
-  </si>
-  <si>
-    <t>云南  风散か枫留(2503036233)</t>
-  </si>
-  <si>
-    <t>云南 迷失(1715210485)</t>
-  </si>
-  <si>
-    <t>广东 聆心(918188673)</t>
-  </si>
-  <si>
-    <t>武汉～秋心(594622816)</t>
-  </si>
-  <si>
-    <t>(429371379)</t>
-  </si>
-  <si>
-    <t>云南。。罗忆安(1419200562)</t>
-  </si>
-  <si>
-    <t>2209053097(2209053097)</t>
-  </si>
-  <si>
-    <t>641031655(641031655)</t>
-  </si>
-  <si>
-    <t>(1850923342)</t>
-  </si>
-  <si>
-    <t>陕西 逗逗(2315085164)</t>
-  </si>
-  <si>
-    <t>云南   小胡(1765769897)</t>
-  </si>
-  <si>
-    <t>1850455645(1850455645)</t>
-  </si>
-  <si>
-    <t>秋心(594622816)</t>
-  </si>
-  <si>
-    <t>1752451505(1752451505)</t>
-  </si>
-  <si>
-    <t>(1124847169)</t>
-  </si>
-  <si>
-    <t>(957946932)</t>
-  </si>
-  <si>
-    <t>武汉……小执着丶(1091220471)</t>
-  </si>
-  <si>
-    <t>湖北 小欣(547894438)</t>
-  </si>
-  <si>
-    <t>1625260485(1625260485)</t>
-  </si>
-  <si>
-    <t>广西，杨艺萍(2210725638)</t>
-  </si>
-  <si>
-    <t>起个什么名字呢(1394581957)</t>
-  </si>
-  <si>
-    <t>武汉~太阳花(234120868)</t>
-  </si>
-  <si>
-    <t>🍁轻描&amp;淡写🍁(2499254683)</t>
-  </si>
-  <si>
-    <t>湖北⭐少年(3530718317)</t>
-  </si>
-  <si>
-    <t>祥云~(522209913)</t>
-  </si>
-  <si>
-    <t>(493650969)</t>
-  </si>
-  <si>
-    <t>(1773663797)</t>
-  </si>
-  <si>
-    <t>谁与流年共初识(1148381487)</t>
-  </si>
-  <si>
-    <t>(1018611007)</t>
-  </si>
-  <si>
-    <t>不是弱智(413385329)</t>
-  </si>
-  <si>
-    <t>(2327689971)</t>
-  </si>
-  <si>
-    <t>1148381487(1148381487)</t>
-  </si>
-  <si>
-    <t>武汉 陈浩(892213251)</t>
-  </si>
-  <si>
-    <t>"专业&amp;卖萌20年」(572603673)</t>
-  </si>
-  <si>
-    <t>(714083433)</t>
-  </si>
-  <si>
-    <t>武汉～祺祺(957862124)</t>
-  </si>
-  <si>
-    <t>黄家湖 阚兰(2471374146)</t>
-  </si>
-  <si>
-    <t>香水百合(507510662)</t>
-  </si>
-  <si>
-    <t>(875483801)</t>
-  </si>
-  <si>
-    <t>2662195723(2662195723)</t>
-  </si>
-  <si>
-    <t>四川  梧桐(2673236047)</t>
-  </si>
-  <si>
-    <t>2503036233(2503036233)</t>
-  </si>
-  <si>
-    <t>请叫我小夫子(425779927)</t>
-  </si>
-  <si>
-    <t>(784380833)</t>
-  </si>
-  <si>
-    <t>云南。。。(2563421535)</t>
-  </si>
-  <si>
-    <t>湖北，S(1872736162)</t>
-  </si>
-  <si>
-    <t>童年(3530718317)</t>
-  </si>
-  <si>
-    <t>(425779927)</t>
-  </si>
-  <si>
-    <t>云南  威宝(1812549176)</t>
-  </si>
-  <si>
-    <t>329834712(329834712)</t>
-  </si>
-  <si>
-    <t>湖北 雪莲(1356942030)</t>
-  </si>
-  <si>
-    <t>梧桐萋萋(2673236047)</t>
-  </si>
-  <si>
-    <t>leaf(2562604241)</t>
-  </si>
-  <si>
-    <t>597728956(597728956)</t>
-  </si>
-  <si>
-    <t>光头强(3454585763)</t>
-  </si>
-  <si>
-    <t>2447846558(2447846558)</t>
-  </si>
-  <si>
-    <t>(975640704)</t>
-  </si>
-  <si>
-    <t>(956181916)</t>
-  </si>
-  <si>
-    <t>忽然之间(635250290)</t>
-  </si>
-  <si>
-    <t>(740478155)</t>
+    <t>云南~凉声(2083686645)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉 孤独是我(690511572)_x000D_</t>
+  </si>
+  <si>
+    <t>湖北 琳儿(875483801)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉，陈政(1427270056)_x000D_</t>
+  </si>
+  <si>
+    <t>华师-沐沐(451367682)_x000D_</t>
+  </si>
+  <si>
+    <t>云南  马威(1812549176)_x000D_</t>
+  </si>
+  <si>
+    <t>石家庄  又年(2209053097)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉 郑念琴(1018611007)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉  明珠(2814869857)_x000D_</t>
+  </si>
+  <si>
+    <t>内蒙古-卢宇(1145522803)_x000D_</t>
+  </si>
+  <si>
+    <t>广西  宁(1951618519)_x000D_</t>
+  </si>
+  <si>
+    <t>2083686645(2083686645)_x000D_</t>
+  </si>
+  <si>
+    <t>系统消息(10000)_x000D_</t>
+  </si>
+  <si>
+    <t>山东菏泽~暖暖(2447846558)_x000D_</t>
+  </si>
+  <si>
+    <t>山东~暖暖(2447846558)_x000D_</t>
+  </si>
+  <si>
+    <t>四川whisky(1520102978)_x000D_</t>
+  </si>
+  <si>
+    <t>山东菏泽~Forget°淡忘(2447846558)_x000D_</t>
+  </si>
+  <si>
+    <t>山东~Double(2447846558)_x000D_</t>
+  </si>
+  <si>
+    <t>875483801(875483801)_x000D_</t>
+  </si>
+  <si>
+    <t>🎶 ～听雨轩  ．(1808623748)_x000D_</t>
+  </si>
+  <si>
+    <t>740478155(740478155)_x000D_</t>
+  </si>
+  <si>
+    <t>河南 文明(740478155)_x000D_</t>
+  </si>
+  <si>
+    <t>重庆，宸宸(641031655)_x000D_</t>
+  </si>
+  <si>
+    <t>371558097(371558097)_x000D_</t>
+  </si>
+  <si>
+    <t>(1951618519)_x000D_</t>
+  </si>
+  <si>
+    <t>西安+无念(2063380644)_x000D_</t>
+  </si>
+  <si>
+    <t>(2083686645)_x000D_</t>
+  </si>
+  <si>
+    <t>(1427270056)_x000D_</t>
+  </si>
+  <si>
+    <t>毛衣和衬衫(1511868393)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉_彭美辰(791865372)_x000D_</t>
+  </si>
+  <si>
+    <t>1018611007(1018611007)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉--煮的(1063168952)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉的同学(1850923342)_x000D_</t>
+  </si>
+  <si>
+    <t>云南     Angle   微笑(497232985)_x000D_</t>
+  </si>
+  <si>
+    <t>曼曼(596765682)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉～孤独是我(690511572)_x000D_</t>
+  </si>
+  <si>
+    <t>2814869857(2814869857)_x000D_</t>
+  </si>
+  <si>
+    <t>财政～1601吴一波(690511572)_x000D_</t>
+  </si>
+  <si>
+    <t>493650969(493650969)_x000D_</t>
+  </si>
+  <si>
+    <t>1427270056(1427270056)_x000D_</t>
+  </si>
+  <si>
+    <t>(2447846558)_x000D_</t>
+  </si>
+  <si>
+    <t>1850923342(1850923342)_x000D_</t>
+  </si>
+  <si>
+    <t>湖北—根叔(993448170)_x000D_</t>
+  </si>
+  <si>
+    <t>乾 ﹠魂·不吝(2510377152)_x000D_</t>
+  </si>
+  <si>
+    <t>昭通-马威心理分析(1812549176)_x000D_</t>
+  </si>
+  <si>
+    <t>云南   谭巧(635250290)_x000D_</t>
+  </si>
+  <si>
+    <t>湖北 望山(1124847169)_x000D_</t>
+  </si>
+  <si>
+    <t>(2503036233)_x000D_</t>
+  </si>
+  <si>
+    <t>云南       小飞(1491240639)_x000D_</t>
+  </si>
+  <si>
+    <t>地球上     瑟瑟&lt;gggggggggggggggg_9@163.com&gt;_x000D_</t>
+  </si>
+  <si>
+    <t>1951618519(1951618519)_x000D_</t>
+  </si>
+  <si>
+    <t>微微一笑(2971344137)_x000D_</t>
+  </si>
+  <si>
+    <t>云南  风散か枫留(2503036233)_x000D_</t>
+  </si>
+  <si>
+    <t>微微一笑(3530718317)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉一静穆时光(99327213)_x000D_</t>
+  </si>
+  <si>
+    <t>993448170(993448170)_x000D_</t>
+  </si>
+  <si>
+    <t>小天(3485476971)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉 古月照今尘(2510377152)_x000D_</t>
+  </si>
+  <si>
+    <t>甘肃  仓鼠(329834712)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉  晨(1773663797)_x000D_</t>
+  </si>
+  <si>
+    <t>云南 迷失(1715210485)_x000D_</t>
+  </si>
+  <si>
+    <t>1440449040(1440449040)_x000D_</t>
+  </si>
+  <si>
+    <t>(2475038603)_x000D_</t>
+  </si>
+  <si>
+    <t>(429371379)_x000D_</t>
+  </si>
+  <si>
+    <t>(957946932)_x000D_</t>
+  </si>
+  <si>
+    <t>云南。。罗忆安(1419200562)_x000D_</t>
+  </si>
+  <si>
+    <t>1850455645(1850455645)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉～秋心(594622816)_x000D_</t>
+  </si>
+  <si>
+    <t>641031655(641031655)_x000D_</t>
+  </si>
+  <si>
+    <t>(1124847169)_x000D_</t>
+  </si>
+  <si>
+    <t>云南   小胡(1765769897)_x000D_</t>
+  </si>
+  <si>
+    <t>秋心(594622816)_x000D_</t>
+  </si>
+  <si>
+    <t>湖北 小欣(547894438)_x000D_</t>
+  </si>
+  <si>
+    <t>陕西 逗逗(2315085164)_x000D_</t>
+  </si>
+  <si>
+    <t>广东 聆心(918188673)_x000D_</t>
+  </si>
+  <si>
+    <t>(1850923342)_x000D_</t>
+  </si>
+  <si>
+    <t>1752451505(1752451505)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉……小执着丶(1091220471)_x000D_</t>
+  </si>
+  <si>
+    <t>2209053097(2209053097)_x000D_</t>
+  </si>
+  <si>
+    <t>(2327689971)_x000D_</t>
+  </si>
+  <si>
+    <t>湖北 雪莲(1356942030)_x000D_</t>
+  </si>
+  <si>
+    <t>云南  威宝(1812549176)_x000D_</t>
+  </si>
+  <si>
+    <t>广西，杨艺萍(2210725638)_x000D_</t>
+  </si>
+  <si>
+    <t>忽然之间(635250290)_x000D_</t>
+  </si>
+  <si>
+    <t>2503036233(2503036233)_x000D_</t>
+  </si>
+  <si>
+    <t>2447846558(2447846558)_x000D_</t>
+  </si>
+  <si>
+    <t>597728956(597728956)_x000D_</t>
+  </si>
+  <si>
+    <t>黄家湖 阚兰(2471374146)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉 陈浩(892213251)_x000D_</t>
+  </si>
+  <si>
+    <t>329834712(329834712)_x000D_</t>
+  </si>
+  <si>
+    <t>(956181916)_x000D_</t>
+  </si>
+  <si>
+    <t>leaf(2562604241)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉～祺祺(957862124)_x000D_</t>
+  </si>
+  <si>
+    <t>(1018611007)_x000D_</t>
+  </si>
+  <si>
+    <t>光头强(3454585763)_x000D_</t>
+  </si>
+  <si>
+    <t>(740478155)_x000D_</t>
+  </si>
+  <si>
+    <t>香水百合(507510662)_x000D_</t>
+  </si>
+  <si>
+    <t>童年(3530718317)_x000D_</t>
+  </si>
+  <si>
+    <t>1625260485(1625260485)_x000D_</t>
+  </si>
+  <si>
+    <t>(975640704)_x000D_</t>
+  </si>
+  <si>
+    <t>四川  梧桐(2673236047)_x000D_</t>
+  </si>
+  <si>
+    <t>"专业&amp;卖萌20年」(572603673)_x000D_</t>
+  </si>
+  <si>
+    <t>湖北，S(1872736162)_x000D_</t>
+  </si>
+  <si>
+    <t>湖北⭐少年(3530718317)_x000D_</t>
+  </si>
+  <si>
+    <t>云南。。。(2563421535)_x000D_</t>
+  </si>
+  <si>
+    <t>请叫我小夫子(425779927)_x000D_</t>
+  </si>
+  <si>
+    <t>武汉~太阳花(234120868)_x000D_</t>
+  </si>
+  <si>
+    <t>🍁轻描&amp;淡写🍁(2499254683)_x000D_</t>
+  </si>
+  <si>
+    <t>祥云~(522209913)_x000D_</t>
+  </si>
+  <si>
+    <t>(714083433)_x000D_</t>
+  </si>
+  <si>
+    <t>1148381487(1148381487)_x000D_</t>
+  </si>
+  <si>
+    <t>不是弱智(413385329)_x000D_</t>
+  </si>
+  <si>
+    <t>梧桐萋萋(2673236047)_x000D_</t>
+  </si>
+  <si>
+    <t>2662195723(2662195723)_x000D_</t>
+  </si>
+  <si>
+    <t>(1773663797)_x000D_</t>
+  </si>
+  <si>
+    <t>(784380833)_x000D_</t>
+  </si>
+  <si>
+    <t>(875483801)_x000D_</t>
+  </si>
+  <si>
+    <t>(425779927)_x000D_</t>
+  </si>
+  <si>
+    <t>谁与流年共初识(1148381487)_x000D_</t>
+  </si>
+  <si>
+    <t>(493650969)_x000D_</t>
+  </si>
+  <si>
+    <t>起个什么名字呢(1394581957)_x000D_</t>
   </si>
   <si>
     <t>词汇</t>
@@ -618,24 +618,24 @@
     <t>普京</t>
   </si>
   <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>东京</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
     <t>美</t>
   </si>
   <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>东京</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>江西</t>
-  </si>
-  <si>
     <t>南京</t>
   </si>
   <si>
@@ -1470,6 +1470,9 @@
     <t>危地马拉</t>
   </si>
   <si>
+    <t>汨罗</t>
+  </si>
+  <si>
     <t>长度</t>
   </si>
   <si>
@@ -1704,7 +1707,7 @@
     <t>连云港市</t>
   </si>
   <si>
-    <t>汨罗</t>
+    <t>许昌市</t>
   </si>
   <si>
     <t>湘西</t>
@@ -1741,9 +1744,6 @@
   </si>
   <si>
     <t>大明湖</t>
-  </si>
-  <si>
-    <t>许昌市</t>
   </si>
   <si>
     <t>北约</t>
